--- a/config/projects/mysterious_night/slot_config.xlsx
+++ b/config/projects/mysterious_night/slot_config.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="67">
   <si>
     <t>Columns</t>
   </si>
@@ -121,81 +121,21 @@
     <t>Pay5</t>
   </si>
   <si>
-    <t>Line 1</t>
-  </si>
-  <si>
-    <t>Line 2</t>
-  </si>
-  <si>
-    <t>Line 3</t>
-  </si>
-  <si>
-    <t>Line 4</t>
-  </si>
-  <si>
-    <t>Line 5</t>
-  </si>
-  <si>
-    <t>Line 6</t>
-  </si>
-  <si>
-    <t>Line 7</t>
-  </si>
-  <si>
-    <t>Line 8</t>
-  </si>
-  <si>
-    <t>Line 9</t>
-  </si>
-  <si>
     <t>RTP</t>
   </si>
   <si>
     <t>RTP%</t>
   </si>
   <si>
-    <t>Line 10</t>
-  </si>
-  <si>
     <t>Base</t>
   </si>
   <si>
-    <t>Line 11</t>
-  </si>
-  <si>
     <t>Bonus</t>
   </si>
   <si>
-    <t>Line 12</t>
-  </si>
-  <si>
     <t xml:space="preserve">Total </t>
   </si>
   <si>
-    <t>Line 13</t>
-  </si>
-  <si>
-    <t>Line 14</t>
-  </si>
-  <si>
-    <t>Line 15</t>
-  </si>
-  <si>
-    <t>Line 16</t>
-  </si>
-  <si>
-    <t>Line 17</t>
-  </si>
-  <si>
-    <t>Line 18</t>
-  </si>
-  <si>
-    <t>Line 19</t>
-  </si>
-  <si>
-    <t>Line 20</t>
-  </si>
-  <si>
     <t>Card Back</t>
   </si>
   <si>
@@ -223,46 +163,52 @@
     <t>Distribucio exponencial discreta</t>
   </si>
   <si>
+    <t>Card Multiplier</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>Probaility %</t>
+  </si>
+  <si>
+    <t>Avg Spins per bonus</t>
+  </si>
+  <si>
+    <t>Chest Prob Per Spin</t>
+  </si>
+  <si>
+    <t>Avg Payer Cards per Spin</t>
+  </si>
+  <si>
+    <t>EV Multiplier</t>
+  </si>
+  <si>
+    <t>EV Total Multiplier</t>
+  </si>
+  <si>
+    <t>EV Bonus Per Spin</t>
+  </si>
+  <si>
+    <t>EV Bonus</t>
+  </si>
+  <si>
+    <t>Expected Bonus Symbols</t>
+  </si>
+  <si>
+    <t>Bonus Symbols</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
     <t>Scatters</t>
   </si>
   <si>
     <t>Start Free Spins</t>
   </si>
   <si>
-    <t>Card Multiplier</t>
-  </si>
-  <si>
-    <t>Weight</t>
-  </si>
-  <si>
-    <t>Probaility %</t>
-  </si>
-  <si>
-    <t>Avg Spins per bonus</t>
-  </si>
-  <si>
-    <t>Chest Prob Per Spin</t>
-  </si>
-  <si>
-    <t>Avg Payer Cards per Spin</t>
-  </si>
-  <si>
-    <t>EV Multiplier</t>
-  </si>
-  <si>
-    <t>EV Total Multiplier</t>
-  </si>
-  <si>
-    <t>EV Bonus Per Spin</t>
-  </si>
-  <si>
-    <t>EV Bonus</t>
-  </si>
-  <si>
-    <t>Expected Bonus Symbols</t>
-  </si>
-  <si>
-    <t>Bonus Symbols</t>
+    <t>Bonus to upgrade</t>
   </si>
   <si>
     <t>Probability &gt;= 3 bonus symbols</t>
@@ -550,10 +496,10 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FFFFFFFF"/>
@@ -564,10 +510,10 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
         <color rgb="FFFFFFFF"/>
@@ -620,6 +566,20 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFF6F8F9"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF6F8F9"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFF6F8F9"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
@@ -634,20 +594,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF6F8F9"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFF6F8F9"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFF6F8F9"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
@@ -676,7 +622,7 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="FF284E3F"/>
       </left>
       <right style="thin">
         <color rgb="FFF6F8F9"/>
@@ -832,7 +778,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="96">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -909,19 +855,22 @@
     <xf borderId="22" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="23" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf borderId="20" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="21" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="24" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="23" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="24" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="21" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="24" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="23" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="25" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -933,19 +882,22 @@
     <xf borderId="27" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="28" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf borderId="25" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="26" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="29" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="28" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="29" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="26" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="29" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="28" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -976,8 +928,8 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="32" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf borderId="32" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="33" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
@@ -1003,98 +955,104 @@
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="24" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="21" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="23" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="35" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="29" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="26" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="28" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="36" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="35" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="16" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="18" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="16" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="16" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="37" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="38" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="39" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="40" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="16" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="31" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
+    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="15" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="13" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="19" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf borderId="21" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="23" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="21" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="24" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="35" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf borderId="26" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="28" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="15" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="28" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="26" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="29" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="36" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="35" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="16" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="18" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="16" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="16" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="37" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="38" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="39" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="40" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="16" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="31" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="15" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="41" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
@@ -1148,7 +1106,7 @@
       <border/>
     </dxf>
   </dxfs>
-  <tableStyles count="6">
+  <tableStyles count="7">
     <tableStyle count="3" pivot="0" name="Full 1-style">
       <tableStyleElement dxfId="1" type="headerRow"/>
       <tableStyleElement dxfId="2" type="firstRowStripe"/>
@@ -1175,6 +1133,11 @@
       <tableStyleElement dxfId="3" type="secondRowStripe"/>
     </tableStyle>
     <tableStyle count="3" pivot="0" name="Full 1-style 6">
+      <tableStyleElement dxfId="1" type="headerRow"/>
+      <tableStyleElement dxfId="2" type="firstRowStripe"/>
+      <tableStyleElement dxfId="3" type="secondRowStripe"/>
+    </tableStyle>
+    <tableStyle count="3" pivot="0" name="Full 1-style 7">
       <tableStyleElement dxfId="1" type="headerRow"/>
       <tableStyleElement dxfId="2" type="firstRowStripe"/>
       <tableStyleElement dxfId="3" type="secondRowStripe"/>
@@ -1211,21 +1174,20 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="H19:M39" displayName="Paylines" name="Paylines" id="3">
-  <tableColumns count="6">
-    <tableColumn name="Columna 1" id="1"/>
-    <tableColumn name="Reel 1" id="2"/>
-    <tableColumn name="Reel 2" id="3"/>
-    <tableColumn name="Reel 3" id="4"/>
-    <tableColumn name="Reel 4" id="5"/>
-    <tableColumn name="Reel 5" id="6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="H19:L39" displayName="Paylines" name="Paylines" id="3">
+  <tableColumns count="5">
+    <tableColumn name="Reel 1" id="1"/>
+    <tableColumn name="Reel 2" id="2"/>
+    <tableColumn name="Reel 3" id="3"/>
+    <tableColumn name="Reel 4" id="4"/>
+    <tableColumn name="Reel 5" id="5"/>
   </tableColumns>
   <tableStyleInfo name="Full 1-style 3" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="O19:R26" displayName="Paytable" name="Paytable" id="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="N19:Q26" displayName="Paytable" name="Paytable" id="4">
   <tableColumns count="4">
     <tableColumn name="Columna 1" id="1"/>
     <tableColumn name="Pay 3" id="2"/>
@@ -1258,6 +1220,18 @@
     <tableColumn name="Probaility %" id="4"/>
   </tableColumns>
   <tableStyleInfo name="Full 1-style 6" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="K63:N66" displayName="Levels" name="Levels" id="7">
+  <tableColumns count="4">
+    <tableColumn name="Level" id="1"/>
+    <tableColumn name="Scatters" id="2"/>
+    <tableColumn name="Start Free Spins" id="3"/>
+    <tableColumn name="Bonus to upgrade" id="4"/>
+  </tableColumns>
+  <tableStyleInfo name="Full 1-style 7" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
 </table>
 </file>
 
@@ -1470,7 +1444,8 @@
     <col customWidth="1" min="9" max="9" width="14.88"/>
     <col customWidth="1" min="10" max="11" width="13.38"/>
     <col customWidth="1" min="12" max="12" width="15.25"/>
-    <col customWidth="1" min="13" max="14" width="15.5"/>
+    <col customWidth="1" min="13" max="13" width="15.5"/>
+    <col customWidth="1" min="14" max="14" width="17.63"/>
     <col customWidth="1" min="15" max="15" width="15.25"/>
     <col customWidth="1" min="16" max="16" width="16.13"/>
     <col customWidth="1" min="17" max="17" width="16.5"/>
@@ -1606,7 +1581,7 @@
         <v>0.0002304</v>
       </c>
       <c r="R6" s="12">
-        <f>(P20*O6)+(Q20*P6)+(R20*Q6)</f>
+        <f>(O20*O6)+(P20*P6)+(Q20*Q6)</f>
         <v>0.0029952</v>
       </c>
     </row>
@@ -1670,7 +1645,7 @@
         <v>0.0002016</v>
       </c>
       <c r="R7" s="12">
-        <f t="shared" ref="R7:R12" si="10">P21*O7+Q21*P7+R21*Q7</f>
+        <f t="shared" ref="R7:R12" si="10">O21*O7+P21*P7+Q21*Q7</f>
         <v>0.0028896</v>
       </c>
     </row>
@@ -2149,39 +2124,36 @@
         <v>31</v>
       </c>
       <c r="H19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I19" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="J19" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="K19" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N19" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="I19" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="J19" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="K19" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="L19" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O19" s="22" t="s">
-        <v>32</v>
+      <c r="O19" s="21" t="s">
+        <v>33</v>
       </c>
       <c r="P19" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q19" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="R19" s="2" t="s">
+      <c r="Q19" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="20">
       <c r="B20" s="23" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C20" s="24" t="s">
         <v>21</v>
@@ -2190,13 +2162,13 @@
         <v>22</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F20" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="H20" s="26" t="s">
-        <v>36</v>
+      <c r="H20" s="26">
+        <v>1.0</v>
       </c>
       <c r="I20" s="27">
         <v>1.0</v>
@@ -2207,69 +2179,63 @@
       <c r="K20" s="27">
         <v>1.0</v>
       </c>
-      <c r="L20" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="M20" s="28">
-        <v>1.0</v>
-      </c>
-      <c r="O20" s="26" t="s">
+      <c r="L20" s="28">
+        <v>1.0</v>
+      </c>
+      <c r="N20" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="P20" s="29">
+      <c r="O20" s="30">
         <v>0.35</v>
       </c>
-      <c r="Q20" s="29">
-        <v>1.0</v>
-      </c>
-      <c r="R20" s="30">
+      <c r="P20" s="30">
+        <v>1.0</v>
+      </c>
+      <c r="Q20" s="31">
         <v>2.0</v>
       </c>
     </row>
     <row r="21">
-      <c r="B21" s="31" t="s">
+      <c r="B21" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="32" t="s">
+      <c r="C21" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="32" t="s">
+      <c r="D21" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="E21" s="32" t="s">
+      <c r="E21" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="F21" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="I21" s="35">
+      <c r="F21" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21" s="35">
         <v>0.0</v>
       </c>
-      <c r="J21" s="35">
+      <c r="I21" s="36">
         <v>0.0</v>
       </c>
-      <c r="K21" s="35">
+      <c r="J21" s="36">
         <v>0.0</v>
       </c>
-      <c r="L21" s="35">
+      <c r="K21" s="36">
         <v>0.0</v>
       </c>
-      <c r="M21" s="36">
+      <c r="L21" s="37">
         <v>0.0</v>
       </c>
-      <c r="O21" s="34" t="s">
+      <c r="N21" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="P21" s="37">
+      <c r="O21" s="39">
         <v>0.35</v>
       </c>
-      <c r="Q21" s="37">
-        <v>1.0</v>
-      </c>
-      <c r="R21" s="38">
+      <c r="P21" s="39">
+        <v>1.0</v>
+      </c>
+      <c r="Q21" s="40">
         <v>2.0</v>
       </c>
     </row>
@@ -2287,10 +2253,10 @@
         <v>19</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="H22" s="26" t="s">
-        <v>38</v>
+        <v>19</v>
+      </c>
+      <c r="H22" s="26">
+        <v>2.0</v>
       </c>
       <c r="I22" s="27">
         <v>2.0</v>
@@ -2301,69 +2267,63 @@
       <c r="K22" s="27">
         <v>2.0</v>
       </c>
-      <c r="L22" s="27">
+      <c r="L22" s="28">
         <v>2.0</v>
       </c>
-      <c r="M22" s="28">
+      <c r="N22" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="O22" s="30">
+        <v>0.35</v>
+      </c>
+      <c r="P22" s="30">
+        <v>1.0</v>
+      </c>
+      <c r="Q22" s="31">
         <v>2.0</v>
       </c>
-      <c r="O22" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="P22" s="29">
+    </row>
+    <row r="23">
+      <c r="B23" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" s="35">
+        <v>0.0</v>
+      </c>
+      <c r="I23" s="36">
+        <v>1.0</v>
+      </c>
+      <c r="J23" s="36">
+        <v>2.0</v>
+      </c>
+      <c r="K23" s="36">
+        <v>1.0</v>
+      </c>
+      <c r="L23" s="37">
+        <v>0.0</v>
+      </c>
+      <c r="N23" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="O23" s="39">
         <v>0.35</v>
       </c>
-      <c r="Q22" s="29">
-        <v>1.0</v>
-      </c>
-      <c r="R22" s="30">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="B23" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="E23" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="H23" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="I23" s="35">
-        <v>0.0</v>
-      </c>
-      <c r="J23" s="35">
-        <v>1.0</v>
-      </c>
-      <c r="K23" s="35">
-        <v>2.0</v>
-      </c>
-      <c r="L23" s="35">
-        <v>1.0</v>
-      </c>
-      <c r="M23" s="36">
-        <v>0.0</v>
-      </c>
-      <c r="O23" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="P23" s="37">
-        <v>0.35</v>
-      </c>
-      <c r="Q23" s="37">
-        <v>1.0</v>
-      </c>
-      <c r="R23" s="38">
+      <c r="P23" s="39">
+        <v>1.0</v>
+      </c>
+      <c r="Q23" s="40">
         <v>2.0</v>
       </c>
     </row>
@@ -2375,7 +2335,7 @@
         <v>21</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E24" s="24" t="s">
         <v>23</v>
@@ -2383,81 +2343,75 @@
       <c r="F24" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="H24" s="26" t="s">
-        <v>40</v>
+      <c r="H24" s="26">
+        <v>2.0</v>
       </c>
       <c r="I24" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="J24" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="K24" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="L24" s="28">
         <v>2.0</v>
       </c>
-      <c r="J24" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="K24" s="27">
+      <c r="N24" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O24" s="30">
+        <v>1.0</v>
+      </c>
+      <c r="P24" s="30">
+        <v>3.0</v>
+      </c>
+      <c r="Q24" s="31">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="H25" s="35">
         <v>0.0</v>
       </c>
-      <c r="L24" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="M24" s="28">
-        <v>2.0</v>
-      </c>
-      <c r="O24" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="P24" s="29">
-        <v>1.0</v>
-      </c>
-      <c r="Q24" s="29">
-        <v>3.0</v>
-      </c>
-      <c r="R24" s="30">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="B25" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="E25" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="F25" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="H25" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="I25" s="35">
+      <c r="I25" s="36">
         <v>0.0</v>
       </c>
-      <c r="J25" s="35">
+      <c r="J25" s="36">
+        <v>1.0</v>
+      </c>
+      <c r="K25" s="36">
         <v>0.0</v>
       </c>
-      <c r="K25" s="35">
-        <v>1.0</v>
-      </c>
-      <c r="L25" s="35">
+      <c r="L25" s="37">
         <v>0.0</v>
       </c>
-      <c r="M25" s="36">
-        <v>0.0</v>
-      </c>
-      <c r="O25" s="34" t="s">
+      <c r="N25" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="P25" s="37">
+      <c r="O25" s="39">
         <v>1.5</v>
       </c>
-      <c r="Q25" s="37">
+      <c r="P25" s="39">
         <v>4.5</v>
       </c>
-      <c r="R25" s="38">
+      <c r="Q25" s="40">
         <v>7.0</v>
       </c>
     </row>
@@ -2475,77 +2429,71 @@
         <v>16</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="H26" s="26" t="s">
-        <v>42</v>
+        <v>18</v>
+      </c>
+      <c r="H26" s="26">
+        <v>2.0</v>
       </c>
       <c r="I26" s="27">
         <v>2.0</v>
       </c>
       <c r="J26" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="K26" s="27">
         <v>2.0</v>
       </c>
-      <c r="K26" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="L26" s="27">
+      <c r="L26" s="28">
         <v>2.0</v>
       </c>
-      <c r="M26" s="28">
+      <c r="N26" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="O26" s="42">
         <v>2.0</v>
       </c>
-      <c r="O26" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="P26" s="40">
-        <v>2.0</v>
-      </c>
-      <c r="Q26" s="40">
+      <c r="P26" s="42">
         <v>8.0</v>
       </c>
-      <c r="R26" s="41">
+      <c r="Q26" s="43">
         <v>25.0</v>
       </c>
     </row>
     <row r="27">
-      <c r="B27" s="31" t="s">
+      <c r="B27" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="32" t="s">
+      <c r="C27" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="32" t="s">
+      <c r="D27" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="E27" s="32" t="s">
+      <c r="E27" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="F27" s="33" t="s">
+      <c r="F27" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="H27" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="I27" s="35">
+      <c r="H27" s="35">
         <v>0.0</v>
       </c>
-      <c r="J27" s="35">
-        <v>1.0</v>
-      </c>
-      <c r="K27" s="35">
-        <v>1.0</v>
-      </c>
-      <c r="L27" s="35">
-        <v>1.0</v>
-      </c>
-      <c r="M27" s="36">
+      <c r="I27" s="36">
+        <v>1.0</v>
+      </c>
+      <c r="J27" s="36">
+        <v>1.0</v>
+      </c>
+      <c r="K27" s="36">
+        <v>1.0</v>
+      </c>
+      <c r="L27" s="37">
         <v>0.0</v>
       </c>
-      <c r="O27" s="42"/>
+      <c r="N27" s="44"/>
+      <c r="O27" s="5"/>
       <c r="P27" s="5"/>
       <c r="Q27" s="5"/>
-      <c r="R27" s="5"/>
     </row>
     <row r="28">
       <c r="B28" s="23" t="s">
@@ -2563,78 +2511,72 @@
       <c r="F28" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="H28" s="26" t="s">
-        <v>44</v>
+      <c r="H28" s="26">
+        <v>2.0</v>
       </c>
       <c r="I28" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="J28" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="K28" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="L28" s="28">
         <v>2.0</v>
       </c>
-      <c r="J28" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="K28" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="L28" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="M28" s="28">
-        <v>2.0</v>
-      </c>
-      <c r="O28" s="43"/>
-      <c r="P28" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q28" s="44" t="s">
-        <v>46</v>
+      <c r="N28" s="45"/>
+      <c r="O28" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="P28" s="46" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="29">
-      <c r="B29" s="31" t="s">
+      <c r="B29" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="32" t="s">
+      <c r="C29" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="E29" s="32" t="s">
+      <c r="D29" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="F29" s="33" t="s">
+      <c r="F29" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="H29" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="I29" s="35">
-        <v>1.0</v>
-      </c>
-      <c r="J29" s="35">
+      <c r="H29" s="35">
+        <v>1.0</v>
+      </c>
+      <c r="I29" s="36">
         <v>0.0</v>
       </c>
-      <c r="K29" s="35">
+      <c r="J29" s="36">
         <v>0.0</v>
       </c>
-      <c r="L29" s="35">
+      <c r="K29" s="36">
         <v>0.0</v>
       </c>
-      <c r="M29" s="36">
-        <v>1.0</v>
-      </c>
-      <c r="O29" s="45" t="s">
-        <v>48</v>
-      </c>
-      <c r="P29" s="46">
-        <f>(R6+R7+R8+R9+R10+R11+R12) * ROWS(H20:H39)</f>
+      <c r="L29" s="37">
+        <v>1.0</v>
+      </c>
+      <c r="N29" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="O29" s="48">
+        <f>(R6+R7+R8+R9+R10+R11+R12) * ROWS(Paylines[])</f>
         <v>0.442612992</v>
       </c>
-      <c r="Q29" s="46">
-        <f t="shared" ref="Q29:Q31" si="24">P29*100</f>
+      <c r="P29" s="48">
+        <f t="shared" ref="P29:P31" si="24">O29*100</f>
         <v>44.2612992</v>
       </c>
-      <c r="R29" s="47"/>
+      <c r="Q29" s="49"/>
     </row>
     <row r="30">
       <c r="B30" s="23" t="s">
@@ -2652,11 +2594,11 @@
       <c r="F30" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="H30" s="26" t="s">
-        <v>49</v>
+      <c r="H30" s="26">
+        <v>1.0</v>
       </c>
       <c r="I30" s="27">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="J30" s="27">
         <v>2.0</v>
@@ -2664,75 +2606,69 @@
       <c r="K30" s="27">
         <v>2.0</v>
       </c>
-      <c r="L30" s="27">
-        <v>2.0</v>
-      </c>
-      <c r="M30" s="28">
-        <v>1.0</v>
-      </c>
-      <c r="O30" s="45" t="s">
-        <v>50</v>
-      </c>
-      <c r="P30" s="46">
+      <c r="L30" s="28">
+        <v>1.0</v>
+      </c>
+      <c r="N30" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="O30" s="48">
         <f>N59*M43</f>
         <v>0.5200522445</v>
       </c>
-      <c r="Q30" s="46">
+      <c r="P30" s="48">
         <f t="shared" si="24"/>
         <v>52.00522445</v>
       </c>
-      <c r="R30" s="47"/>
+      <c r="Q30" s="49"/>
+      <c r="R30" s="5"/>
       <c r="S30" s="5"/>
-      <c r="T30" s="5"/>
     </row>
     <row r="31">
-      <c r="B31" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="C31" s="32" t="s">
+      <c r="B31" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="D31" s="32" t="s">
+      <c r="C31" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="E31" s="32" t="s">
+      <c r="E31" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="F31" s="33" t="s">
+      <c r="F31" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="H31" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="I31" s="35">
-        <v>1.0</v>
-      </c>
-      <c r="J31" s="35">
+      <c r="H31" s="35">
+        <v>1.0</v>
+      </c>
+      <c r="I31" s="36">
         <v>0.0</v>
       </c>
-      <c r="K31" s="35">
-        <v>1.0</v>
-      </c>
-      <c r="L31" s="35">
+      <c r="J31" s="36">
+        <v>1.0</v>
+      </c>
+      <c r="K31" s="36">
         <v>0.0</v>
       </c>
-      <c r="M31" s="36">
-        <v>1.0</v>
-      </c>
-      <c r="O31" s="45" t="s">
-        <v>52</v>
-      </c>
-      <c r="P31" s="46">
-        <f>(P29)+(P30)</f>
+      <c r="L31" s="37">
+        <v>1.0</v>
+      </c>
+      <c r="N31" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="O31" s="48">
+        <f>(O29)+(O30)</f>
         <v>0.9626652365</v>
       </c>
-      <c r="Q31" s="46">
+      <c r="P31" s="48">
         <f t="shared" si="24"/>
         <v>96.26652365</v>
       </c>
-      <c r="R31" s="48"/>
+      <c r="Q31" s="50"/>
+      <c r="R31" s="5"/>
       <c r="S31" s="5"/>
-      <c r="T31" s="5"/>
     </row>
     <row r="32">
       <c r="B32" s="23" t="s">
@@ -2748,65 +2684,59 @@
         <v>17</v>
       </c>
       <c r="F32" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="H32" s="26" t="s">
-        <v>53</v>
+        <v>19</v>
+      </c>
+      <c r="H32" s="26">
+        <v>1.0</v>
       </c>
       <c r="I32" s="27">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="J32" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="K32" s="27">
         <v>2.0</v>
       </c>
-      <c r="K32" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="L32" s="27">
-        <v>2.0</v>
-      </c>
-      <c r="M32" s="28">
-        <v>1.0</v>
-      </c>
+      <c r="L32" s="28">
+        <v>1.0</v>
+      </c>
+      <c r="R32" s="5"/>
       <c r="S32" s="5"/>
-      <c r="T32" s="5"/>
     </row>
     <row r="33">
-      <c r="B33" s="31" t="s">
+      <c r="B33" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="32" t="s">
+      <c r="C33" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="32" t="s">
+      <c r="D33" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="E33" s="32" t="s">
+      <c r="E33" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="F33" s="33" t="s">
+      <c r="F33" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="H33" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="I33" s="35">
+      <c r="H33" s="35">
         <v>0.0</v>
       </c>
-      <c r="J33" s="35">
+      <c r="I33" s="36">
         <v>0.0</v>
       </c>
-      <c r="K33" s="35">
-        <v>1.0</v>
-      </c>
-      <c r="L33" s="35">
-        <v>1.0</v>
-      </c>
-      <c r="M33" s="36">
+      <c r="J33" s="36">
+        <v>1.0</v>
+      </c>
+      <c r="K33" s="36">
+        <v>1.0</v>
+      </c>
+      <c r="L33" s="37">
         <v>0.0</v>
       </c>
+      <c r="R33" s="5"/>
       <c r="S33" s="5"/>
-      <c r="T33" s="5"/>
     </row>
     <row r="34">
       <c r="B34" s="23" t="s">
@@ -2824,63 +2754,57 @@
       <c r="F34" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="H34" s="26" t="s">
-        <v>55</v>
+      <c r="H34" s="26">
+        <v>2.0</v>
       </c>
       <c r="I34" s="27">
         <v>2.0</v>
       </c>
       <c r="J34" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="K34" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="L34" s="28">
         <v>2.0</v>
       </c>
-      <c r="K34" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="L34" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="M34" s="28">
-        <v>2.0</v>
-      </c>
+      <c r="R34" s="5"/>
       <c r="S34" s="5"/>
-      <c r="T34" s="5"/>
     </row>
     <row r="35">
-      <c r="B35" s="31" t="s">
+      <c r="B35" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="32" t="s">
+      <c r="C35" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="D35" s="32" t="s">
+      <c r="D35" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="E35" s="32" t="s">
+      <c r="E35" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="F35" s="33" t="s">
+      <c r="F35" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="H35" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="I35" s="35">
+      <c r="H35" s="35">
         <v>0.0</v>
       </c>
-      <c r="J35" s="35">
-        <v>1.0</v>
-      </c>
-      <c r="K35" s="35">
+      <c r="I35" s="36">
+        <v>1.0</v>
+      </c>
+      <c r="J35" s="36">
         <v>0.0</v>
       </c>
-      <c r="L35" s="35">
-        <v>1.0</v>
-      </c>
-      <c r="M35" s="36">
+      <c r="K35" s="36">
+        <v>1.0</v>
+      </c>
+      <c r="L35" s="37">
         <v>0.0</v>
       </c>
+      <c r="R35" s="5"/>
       <c r="S35" s="5"/>
-      <c r="T35" s="5"/>
     </row>
     <row r="36">
       <c r="B36" s="23" t="s">
@@ -2898,63 +2822,57 @@
       <c r="F36" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="H36" s="26" t="s">
-        <v>57</v>
+      <c r="H36" s="26">
+        <v>2.0</v>
       </c>
       <c r="I36" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="J36" s="27">
         <v>2.0</v>
       </c>
-      <c r="J36" s="27">
-        <v>1.0</v>
-      </c>
       <c r="K36" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="L36" s="28">
         <v>2.0</v>
       </c>
-      <c r="L36" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="M36" s="28">
+      <c r="R36" s="5"/>
+      <c r="S36" s="5"/>
+    </row>
+    <row r="37">
+      <c r="B37" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="E37" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="F37" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="H37" s="35">
+        <v>0.0</v>
+      </c>
+      <c r="I37" s="36">
+        <v>0.0</v>
+      </c>
+      <c r="J37" s="36">
+        <v>1.0</v>
+      </c>
+      <c r="K37" s="36">
         <v>2.0</v>
       </c>
-      <c r="S36" s="5"/>
-      <c r="T36" s="5"/>
-    </row>
-    <row r="37">
-      <c r="B37" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="C37" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="D37" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E37" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="F37" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="H37" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="I37" s="35">
-        <v>0.0</v>
-      </c>
-      <c r="J37" s="35">
-        <v>0.0</v>
-      </c>
-      <c r="K37" s="35">
-        <v>1.0</v>
-      </c>
-      <c r="L37" s="35">
+      <c r="L37" s="37">
         <v>2.0</v>
       </c>
-      <c r="M37" s="36">
-        <v>2.0</v>
-      </c>
+      <c r="R37" s="5"/>
       <c r="S37" s="5"/>
-      <c r="T37" s="5"/>
     </row>
     <row r="38">
       <c r="B38" s="23" t="s">
@@ -2972,59 +2890,53 @@
       <c r="F38" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="H38" s="26" t="s">
-        <v>59</v>
+      <c r="H38" s="26">
+        <v>2.0</v>
       </c>
       <c r="I38" s="27">
         <v>2.0</v>
       </c>
       <c r="J38" s="27">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="K38" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="L38" s="27">
         <v>0.0</v>
       </c>
-      <c r="M38" s="28">
+      <c r="L38" s="28">
         <v>0.0</v>
       </c>
+      <c r="R38" s="5"/>
       <c r="S38" s="5"/>
-      <c r="T38" s="5"/>
     </row>
     <row r="39">
-      <c r="B39" s="31" t="s">
+      <c r="B39" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="32" t="s">
+      <c r="C39" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="D39" s="32" t="s">
+      <c r="D39" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="E39" s="32" t="s">
+      <c r="E39" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="F39" s="33" t="s">
+      <c r="F39" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="H39" s="49" t="s">
-        <v>60</v>
-      </c>
-      <c r="I39" s="50">
-        <v>1.0</v>
-      </c>
-      <c r="J39" s="50">
-        <v>1.0</v>
-      </c>
-      <c r="K39" s="50">
+      <c r="H39" s="51">
+        <v>1.0</v>
+      </c>
+      <c r="I39" s="52">
+        <v>1.0</v>
+      </c>
+      <c r="J39" s="52">
         <v>0.0</v>
       </c>
-      <c r="L39" s="50">
+      <c r="K39" s="52">
         <v>0.0</v>
       </c>
-      <c r="M39" s="51">
+      <c r="L39" s="53">
         <v>1.0</v>
       </c>
     </row>
@@ -3046,19 +2958,19 @@
       </c>
     </row>
     <row r="41">
-      <c r="B41" s="31" t="s">
+      <c r="B41" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="C41" s="32" t="s">
+      <c r="C41" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="D41" s="32" t="s">
+      <c r="D41" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="E41" s="32" t="s">
+      <c r="E41" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="F41" s="33" t="s">
+      <c r="F41" s="34" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3078,54 +2990,54 @@
       <c r="F42" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="H42" s="52" t="s">
+      <c r="H42" s="54" t="s">
         <v>32</v>
       </c>
       <c r="I42" s="21" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="J42" s="21" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="K42" s="21" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="M42" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="N42" s="53" t="s">
-        <v>66</v>
+        <v>45</v>
+      </c>
+      <c r="N42" s="55" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="43">
-      <c r="B43" s="31" t="s">
+      <c r="B43" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C43" s="32" t="s">
+      <c r="C43" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="D43" s="32" t="s">
+      <c r="D43" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="E43" s="32" t="s">
+      <c r="E43" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="F43" s="33" t="s">
+      <c r="F43" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="H43" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="I43" s="54">
+      <c r="H43" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" s="56">
         <v>0.58</v>
       </c>
-      <c r="J43" s="54">
+      <c r="J43" s="56">
         <v>0.18</v>
       </c>
-      <c r="K43" s="54">
+      <c r="K43" s="56">
         <v>0.05</v>
       </c>
       <c r="L43" s="4">
@@ -3158,35 +3070,29 @@
       </c>
     </row>
     <row r="45">
-      <c r="B45" s="31" t="s">
+      <c r="B45" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="C45" s="32" t="s">
+      <c r="C45" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="D45" s="32" t="s">
+      <c r="D45" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="E45" s="32" t="s">
+      <c r="E45" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="F45" s="33" t="s">
+      <c r="F45" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="H45" s="55" t="s">
-        <v>68</v>
-      </c>
-      <c r="I45" s="56">
+      <c r="H45" s="57" t="s">
+        <v>48</v>
+      </c>
+      <c r="I45" s="58">
         <v>0.8</v>
       </c>
-      <c r="J45" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="M45" s="58" t="s">
-        <v>70</v>
-      </c>
-      <c r="N45" s="59" t="s">
-        <v>71</v>
+      <c r="J45" s="59" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="46">
@@ -3205,46 +3111,34 @@
       <c r="F46" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="M46" s="60">
-        <v>3.0</v>
-      </c>
-      <c r="N46" s="61">
-        <v>10.0</v>
-      </c>
     </row>
     <row r="47">
-      <c r="B47" s="31" t="s">
+      <c r="B47" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C47" s="32" t="s">
+      <c r="C47" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="D47" s="32" t="s">
+      <c r="D47" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="E47" s="32" t="s">
+      <c r="E47" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="F47" s="33" t="s">
+      <c r="F47" s="34" t="s">
         <v>24</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="I47" s="21" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="J47" s="21" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="M47" s="60">
-        <v>4.0</v>
-      </c>
-      <c r="N47" s="61">
-        <v>20.0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="48">
@@ -3263,56 +3157,50 @@
       <c r="F48" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="H48" s="62">
-        <v>1.0</v>
-      </c>
-      <c r="I48" s="63">
+      <c r="H48" s="60">
+        <v>1.0</v>
+      </c>
+      <c r="I48" s="61">
         <f>POWER(I45,H48-1)</f>
         <v>1</v>
       </c>
-      <c r="J48" s="64">
+      <c r="J48" s="62">
         <f>DIVIDE(I48,I58)</f>
         <v>0.2240580499</v>
       </c>
-      <c r="K48" s="65">
+      <c r="K48" s="63">
         <f t="shared" ref="K48:K58" si="25">J48*100</f>
         <v>22.40580499</v>
       </c>
-      <c r="M48" s="66">
-        <v>5.0</v>
-      </c>
-      <c r="N48" s="67">
-        <v>30.0</v>
-      </c>
     </row>
     <row r="49">
-      <c r="B49" s="31" t="s">
+      <c r="B49" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="C49" s="32" t="s">
+      <c r="C49" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="D49" s="32" t="s">
+      <c r="D49" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="E49" s="32" t="s">
+      <c r="E49" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="F49" s="33" t="s">
+      <c r="F49" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="H49" s="68">
+      <c r="H49" s="64">
         <v>2.0</v>
       </c>
-      <c r="I49" s="69">
+      <c r="I49" s="65">
         <f>POWER(I45,H49-1)</f>
         <v>0.8</v>
       </c>
-      <c r="J49" s="70">
+      <c r="J49" s="66">
         <f>DIVIDE(I49,I58)</f>
         <v>0.1792464399</v>
       </c>
-      <c r="K49" s="71">
+      <c r="K49" s="67">
         <f t="shared" si="25"/>
         <v>17.92464399</v>
       </c>
@@ -3333,57 +3221,57 @@
       <c r="F50" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="H50" s="62">
+      <c r="H50" s="60">
         <v>3.0</v>
       </c>
-      <c r="I50" s="63">
+      <c r="I50" s="61">
         <f>POWER(I45,H50-1)</f>
         <v>0.64</v>
       </c>
-      <c r="J50" s="64">
+      <c r="J50" s="62">
         <f>DIVIDE(I50,I58)</f>
         <v>0.1433971519</v>
       </c>
-      <c r="K50" s="72">
+      <c r="K50" s="68">
         <f t="shared" si="25"/>
         <v>14.33971519</v>
       </c>
-      <c r="M50" s="73" t="s">
-        <v>75</v>
-      </c>
-      <c r="N50" s="74">
-        <f>DIVIDE((N46*O14)+(N47*P14)+(N48*Q14),M43)+(I68*(N47-N46))+((N48-N47)*POW(I68,2))</f>
+      <c r="M50" s="69" t="s">
+        <v>53</v>
+      </c>
+      <c r="N50" s="70">
+        <f>DIVIDE((M64*O14)+(M65*P14)+(M66*Q14),M43)+(I68*(M65-M64))+((M66-M65)*POW(I68,2))</f>
         <v>30.13815873</v>
       </c>
     </row>
     <row r="51">
-      <c r="B51" s="31" t="s">
+      <c r="B51" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="C51" s="32" t="s">
+      <c r="C51" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="D51" s="32" t="s">
+      <c r="D51" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="E51" s="32" t="s">
+      <c r="E51" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="F51" s="33" t="s">
+      <c r="F51" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="H51" s="68">
+      <c r="H51" s="64">
         <v>4.0</v>
       </c>
-      <c r="I51" s="69">
+      <c r="I51" s="65">
         <f>POWER(I45,H51-1)</f>
         <v>0.512</v>
       </c>
-      <c r="J51" s="70">
+      <c r="J51" s="66">
         <f>DIVIDE(I51,I58)</f>
         <v>0.1147177216</v>
       </c>
-      <c r="K51" s="71">
+      <c r="K51" s="67">
         <f t="shared" si="25"/>
         <v>11.47177216</v>
       </c>
@@ -3404,62 +3292,62 @@
       <c r="F52" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="H52" s="62">
+      <c r="H52" s="60">
         <v>5.0</v>
       </c>
-      <c r="I52" s="63">
+      <c r="I52" s="61">
         <f>POWER(I45,H52-1)</f>
         <v>0.4096</v>
       </c>
-      <c r="J52" s="64">
+      <c r="J52" s="62">
         <f>DIVIDE(I52,I58)</f>
         <v>0.09177417725</v>
       </c>
-      <c r="K52" s="72">
+      <c r="K52" s="68">
         <f t="shared" si="25"/>
         <v>9.177417725</v>
       </c>
-      <c r="M52" s="73" t="s">
-        <v>76</v>
-      </c>
-      <c r="N52" s="74">
+      <c r="M52" s="69" t="s">
+        <v>54</v>
+      </c>
+      <c r="N52" s="70">
         <f>(1-POW((1-K43),B3*C3))</f>
         <v>0.5367087698</v>
       </c>
     </row>
     <row r="53">
-      <c r="B53" s="31" t="s">
+      <c r="B53" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C53" s="32" t="s">
+      <c r="C53" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="D53" s="32" t="s">
+      <c r="D53" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="E53" s="32" t="s">
+      <c r="E53" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="F53" s="33" t="s">
+      <c r="F53" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="H53" s="68">
+      <c r="H53" s="64">
         <v>6.0</v>
       </c>
-      <c r="I53" s="69">
+      <c r="I53" s="65">
         <f>POWER(I45,H53-1)</f>
         <v>0.32768</v>
       </c>
-      <c r="J53" s="70">
+      <c r="J53" s="66">
         <f>DIVIDE(I53,I58)</f>
         <v>0.0734193418</v>
       </c>
-      <c r="K53" s="71">
+      <c r="K53" s="67">
         <f t="shared" si="25"/>
         <v>7.34193418</v>
       </c>
-      <c r="M53" s="73" t="s">
-        <v>77</v>
+      <c r="M53" s="69" t="s">
+        <v>55</v>
       </c>
       <c r="N53" s="19">
         <f>J43*B3*C3</f>
@@ -3474,7 +3362,7 @@
         <v>23</v>
       </c>
       <c r="D54" s="24" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E54" s="24" t="s">
         <v>18</v>
@@ -3482,58 +3370,58 @@
       <c r="F54" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="H54" s="62">
+      <c r="H54" s="60">
         <v>7.0</v>
       </c>
-      <c r="I54" s="63">
+      <c r="I54" s="61">
         <f>POWER(I45,H54-1)</f>
         <v>0.262144</v>
       </c>
-      <c r="J54" s="64">
+      <c r="J54" s="62">
         <f>DIVIDE(I54,I58)</f>
         <v>0.05873547344</v>
       </c>
-      <c r="K54" s="72">
+      <c r="K54" s="68">
         <f t="shared" si="25"/>
         <v>5.873547344</v>
       </c>
-      <c r="M54" s="75" t="s">
-        <v>78</v>
-      </c>
-      <c r="N54" s="74">
+      <c r="M54" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="N54" s="70">
         <f>(H48*J48)+(H49*J49)+(H50*J50)+(H51*J51)+(H52*J52)+(H53*J53)+(H54*J54)+(H55*J55)+(H56*J56)+(H57*J57)
 </f>
         <v>3.797097504</v>
       </c>
     </row>
     <row r="55">
-      <c r="B55" s="31" t="s">
+      <c r="B55" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="C55" s="32" t="s">
+      <c r="C55" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="D55" s="32" t="s">
+      <c r="D55" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="E55" s="32" t="s">
+      <c r="E55" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="F55" s="33" t="s">
+      <c r="F55" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="H55" s="68">
+      <c r="H55" s="64">
         <v>8.0</v>
       </c>
-      <c r="I55" s="69">
+      <c r="I55" s="65">
         <f>POWER(I45,H55-1)</f>
         <v>0.2097152</v>
       </c>
-      <c r="J55" s="70">
+      <c r="J55" s="66">
         <f>DIVIDE(I55,I58)</f>
         <v>0.04698837875</v>
       </c>
-      <c r="K55" s="71">
+      <c r="K55" s="67">
         <f t="shared" si="25"/>
         <v>4.698837875</v>
       </c>
@@ -3554,57 +3442,57 @@
       <c r="F56" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="H56" s="62">
+      <c r="H56" s="60">
         <v>9.0</v>
       </c>
-      <c r="I56" s="63">
+      <c r="I56" s="61">
         <f>POWER(I45,H56-1)</f>
         <v>0.16777216</v>
       </c>
-      <c r="J56" s="64">
+      <c r="J56" s="62">
         <f>DIVIDE(I56,I58)</f>
         <v>0.037590703</v>
       </c>
-      <c r="K56" s="72">
+      <c r="K56" s="68">
         <f t="shared" si="25"/>
         <v>3.7590703</v>
       </c>
-      <c r="M56" s="76" t="s">
-        <v>79</v>
-      </c>
-      <c r="N56" s="74">
+      <c r="M56" s="72" t="s">
+        <v>57</v>
+      </c>
+      <c r="N56" s="70">
         <f>N53*N54</f>
         <v>10.25216326</v>
       </c>
     </row>
     <row r="57">
-      <c r="B57" s="31" t="s">
+      <c r="B57" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C57" s="32" t="s">
+      <c r="C57" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="D57" s="32" t="s">
+      <c r="D57" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="E57" s="32" t="s">
+      <c r="E57" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="F57" s="33" t="s">
+      <c r="F57" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="H57" s="77">
+      <c r="H57" s="73">
         <v>10.0</v>
       </c>
-      <c r="I57" s="78">
+      <c r="I57" s="74">
         <f>POWER(I45,H57-1)</f>
         <v>0.134217728</v>
       </c>
-      <c r="J57" s="79">
+      <c r="J57" s="75">
         <f>DIVIDE(I57,I58)</f>
         <v>0.0300725624</v>
       </c>
-      <c r="K57" s="80">
+      <c r="K57" s="76">
         <f t="shared" si="25"/>
         <v>3.00725624</v>
       </c>
@@ -3625,7 +3513,7 @@
       <c r="F58" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="H58" s="81" t="s">
+      <c r="H58" s="77" t="s">
         <v>26</v>
       </c>
       <c r="I58" s="18">
@@ -3636,40 +3524,40 @@
         <f t="shared" si="26"/>
         <v>1</v>
       </c>
-      <c r="K58" s="82">
+      <c r="K58" s="78">
         <f t="shared" si="25"/>
         <v>100</v>
       </c>
-      <c r="M58" s="58" t="s">
-        <v>80</v>
-      </c>
-      <c r="N58" s="83">
+      <c r="M58" s="79" t="s">
+        <v>58</v>
+      </c>
+      <c r="N58" s="80">
         <f>N56*N52</f>
         <v>5.502425932</v>
       </c>
     </row>
     <row r="59">
-      <c r="B59" s="31" t="s">
+      <c r="B59" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="C59" s="32" t="s">
+      <c r="C59" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="D59" s="32" t="s">
+      <c r="D59" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="E59" s="32" t="s">
+      <c r="E59" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="F59" s="33" t="s">
+      <c r="F59" s="34" t="s">
         <v>23</v>
       </c>
       <c r="H59" s="5"/>
       <c r="I59" s="5"/>
-      <c r="M59" s="84" t="s">
-        <v>81</v>
-      </c>
-      <c r="N59" s="85">
+      <c r="M59" s="81" t="s">
+        <v>59</v>
+      </c>
+      <c r="N59" s="82">
         <f>N58*N50</f>
         <v>165.8329861</v>
       </c>
@@ -3694,25 +3582,25 @@
       <c r="I60" s="5"/>
     </row>
     <row r="61">
-      <c r="B61" s="31" t="s">
+      <c r="B61" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="C61" s="32" t="s">
+      <c r="C61" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="D61" s="32" t="s">
+      <c r="D61" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="E61" s="32" t="s">
+      <c r="E61" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="F61" s="33" t="s">
+      <c r="F61" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="H61" s="73" t="s">
-        <v>82</v>
-      </c>
-      <c r="I61" s="74" t="str">
+      <c r="H61" s="69" t="s">
+        <v>60</v>
+      </c>
+      <c r="I61" s="70" t="str">
         <f>N50*L43*#REF!*#REF!</f>
         <v>#REF!</v>
       </c>
@@ -3733,30 +3621,42 @@
       <c r="F62" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="H62" s="86"/>
-      <c r="I62" s="42"/>
+      <c r="H62" s="83"/>
+      <c r="I62" s="44"/>
     </row>
     <row r="63">
-      <c r="B63" s="31" t="s">
+      <c r="B63" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="C63" s="32" t="s">
+      <c r="C63" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="D63" s="32" t="s">
+      <c r="D63" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="E63" s="32" t="s">
+      <c r="E63" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="F63" s="33" t="s">
+      <c r="F63" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="H63" s="87" t="s">
-        <v>83</v>
-      </c>
-      <c r="I63" s="88" t="s">
-        <v>67</v>
+      <c r="H63" s="84" t="s">
+        <v>61</v>
+      </c>
+      <c r="I63" s="85" t="s">
+        <v>47</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L63" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="M63" s="86" t="s">
+        <v>64</v>
+      </c>
+      <c r="N63" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="64">
@@ -3775,36 +3675,60 @@
       <c r="F64" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="H64" s="60">
+      <c r="H64" s="87">
         <v>0.0</v>
       </c>
       <c r="I64" s="11">
-        <f>POW((1-L43),N46*B3*C3)</f>
+        <f>POW((1-L43),M64*B3*C3)</f>
         <v>0.002191214817</v>
       </c>
+      <c r="K64" s="60">
+        <v>1.0</v>
+      </c>
+      <c r="L64" s="88">
+        <v>3.0</v>
+      </c>
+      <c r="M64" s="88">
+        <v>10.0</v>
+      </c>
+      <c r="N64" s="89">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="65">
-      <c r="B65" s="31" t="s">
+      <c r="B65" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C65" s="32" t="s">
+      <c r="C65" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="D65" s="32" t="s">
+      <c r="D65" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="E65" s="32" t="s">
+      <c r="E65" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="F65" s="33" t="s">
+      <c r="F65" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="H65" s="60">
+      <c r="H65" s="87">
         <v>1.0</v>
       </c>
       <c r="I65" s="11">
-        <f>COMBIN(B3*C3*N46,H65)*POW(L43,H65)*POW(1-L43,B3*C3*N46-1)</f>
+        <f>COMBIN(B3*C3*M64,H65)*POW(L43,H65)*POW(1-L43,B3*C3*M64-1)</f>
         <v>0.01369509261</v>
+      </c>
+      <c r="K65" s="64">
+        <v>2.0</v>
+      </c>
+      <c r="L65" s="90">
+        <v>4.0</v>
+      </c>
+      <c r="M65" s="90">
+        <v>20.0</v>
+      </c>
+      <c r="N65" s="91">
+        <v>3.0</v>
       </c>
     </row>
     <row r="66">
@@ -3823,28 +3747,40 @@
       <c r="F66" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="H66" s="66">
+      <c r="H66" s="92">
         <v>2.0</v>
       </c>
       <c r="I66" s="14">
-        <f>COMBIN(B3*C3*N46,H66)*POW(L43,H66)*POW(1-L43,B3*C3*N46-2)</f>
+        <f>COMBIN(B3*C3*M64,H66)*POW(L43,H66)*POW(1-L43,B3*C3*M64-2)</f>
         <v>0.04251184996</v>
       </c>
+      <c r="K66" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="L66" s="56">
+        <v>5.0</v>
+      </c>
+      <c r="M66" s="56">
+        <v>30.0</v>
+      </c>
+      <c r="N66" s="4">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="67">
-      <c r="B67" s="31" t="s">
+      <c r="B67" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="C67" s="32" t="s">
+      <c r="C67" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="D67" s="32" t="s">
+      <c r="D67" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="E67" s="32" t="s">
+      <c r="E67" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="F67" s="33" t="s">
+      <c r="F67" s="34" t="s">
         <v>21</v>
       </c>
       <c r="H67" s="5"/>
@@ -3866,97 +3802,97 @@
       <c r="F68" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="H68" s="73" t="s">
-        <v>84</v>
-      </c>
-      <c r="I68" s="74">
+      <c r="H68" s="69" t="s">
+        <v>66</v>
+      </c>
+      <c r="I68" s="70">
         <f>1-(I64+I65+I66)</f>
         <v>0.9416018426</v>
       </c>
     </row>
     <row r="69">
-      <c r="B69" s="89" t="s">
+      <c r="B69" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="C69" s="90" t="s">
+      <c r="C69" s="94" t="s">
         <v>22</v>
       </c>
-      <c r="D69" s="90" t="s">
+      <c r="D69" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="E69" s="90" t="s">
-        <v>24</v>
-      </c>
-      <c r="F69" s="91" t="s">
+      <c r="E69" s="94" t="s">
+        <v>20</v>
+      </c>
+      <c r="F69" s="95" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="71">
-      <c r="B71" s="42"/>
+      <c r="B71" s="44"/>
       <c r="C71" s="5"/>
-      <c r="D71" s="48"/>
+      <c r="D71" s="50"/>
       <c r="E71" s="5"/>
-      <c r="F71" s="48"/>
+      <c r="F71" s="50"/>
       <c r="G71" s="5"/>
     </row>
     <row r="73">
-      <c r="B73" s="42"/>
+      <c r="B73" s="44"/>
       <c r="C73" s="5"/>
-      <c r="D73" s="48"/>
+      <c r="D73" s="50"/>
       <c r="E73" s="5"/>
-      <c r="F73" s="48"/>
+      <c r="F73" s="50"/>
       <c r="G73" s="5"/>
     </row>
     <row r="74">
-      <c r="B74" s="42"/>
+      <c r="B74" s="44"/>
       <c r="C74" s="5"/>
-      <c r="D74" s="48"/>
+      <c r="D74" s="50"/>
       <c r="E74" s="5"/>
-      <c r="F74" s="48"/>
+      <c r="F74" s="50"/>
       <c r="G74" s="5"/>
     </row>
     <row r="75">
-      <c r="B75" s="42"/>
+      <c r="B75" s="44"/>
       <c r="C75" s="5"/>
-      <c r="D75" s="48"/>
+      <c r="D75" s="50"/>
       <c r="E75" s="5"/>
-      <c r="F75" s="48"/>
+      <c r="F75" s="50"/>
       <c r="G75" s="5"/>
-      <c r="H75" s="48"/>
-      <c r="I75" s="48"/>
+      <c r="H75" s="50"/>
+      <c r="I75" s="50"/>
     </row>
     <row r="76">
-      <c r="B76" s="42"/>
+      <c r="B76" s="44"/>
       <c r="C76" s="5"/>
-      <c r="D76" s="48"/>
+      <c r="D76" s="50"/>
       <c r="E76" s="5"/>
-      <c r="F76" s="48"/>
+      <c r="F76" s="50"/>
       <c r="G76" s="5"/>
-      <c r="H76" s="48"/>
-      <c r="I76" s="48"/>
+      <c r="H76" s="50"/>
+      <c r="I76" s="50"/>
     </row>
     <row r="77">
-      <c r="B77" s="42"/>
+      <c r="B77" s="44"/>
       <c r="C77" s="5"/>
-      <c r="D77" s="48"/>
+      <c r="D77" s="50"/>
       <c r="E77" s="5"/>
-      <c r="F77" s="48"/>
+      <c r="F77" s="50"/>
       <c r="G77" s="5"/>
-      <c r="H77" s="48"/>
-      <c r="I77" s="48"/>
+      <c r="H77" s="50"/>
+      <c r="I77" s="50"/>
     </row>
     <row r="78">
-      <c r="B78" s="42"/>
+      <c r="B78" s="44"/>
       <c r="C78" s="5"/>
-      <c r="D78" s="48"/>
+      <c r="D78" s="50"/>
       <c r="E78" s="5"/>
-      <c r="F78" s="48"/>
+      <c r="F78" s="50"/>
       <c r="G78" s="5"/>
-      <c r="H78" s="48"/>
-      <c r="I78" s="48"/>
+      <c r="H78" s="50"/>
+      <c r="I78" s="50"/>
     </row>
     <row r="79">
-      <c r="B79" s="42"/>
+      <c r="B79" s="44"/>
       <c r="C79" s="5"/>
     </row>
   </sheetData>
@@ -3976,18 +3912,19 @@
     <dataValidation type="list" allowBlank="1" sqref="D20:D69">
       <formula1>"King,A,Queen,Q,J,Wolf,K,Wild,Scatter"</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="I20:M39">
-      <formula1>AND(ISNUMBER(I20),(NOT(OR(NOT(ISERROR(DATEVALUE(I20))), AND(ISNUMBER(I20), LEFT(CELL("format", I20))="D")))))</formula1>
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="H20:L39">
+      <formula1>AND(ISNUMBER(H20),(NOT(OR(NOT(ISERROR(DATEVALUE(H20))), AND(ISNUMBER(H20), LEFT(CELL("format", H20))="D")))))</formula1>
     </dataValidation>
   </dataValidations>
   <drawing r:id="rId1"/>
-  <tableParts count="6">
-    <tablePart r:id="rId8"/>
+  <tableParts count="7">
     <tablePart r:id="rId9"/>
     <tablePart r:id="rId10"/>
     <tablePart r:id="rId11"/>
     <tablePart r:id="rId12"/>
     <tablePart r:id="rId13"/>
+    <tablePart r:id="rId14"/>
+    <tablePart r:id="rId15"/>
   </tableParts>
 </worksheet>
 </file>
--- a/config/projects/mysterious_night/slot_config.xlsx
+++ b/config/projects/mysterious_night/slot_config.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="73">
   <si>
     <t>Columns</t>
   </si>
@@ -94,6 +94,9 @@
     <t>Total</t>
   </si>
   <si>
+    <t>Visible Scatters per Spin</t>
+  </si>
+  <si>
     <t>Strip 1</t>
   </si>
   <si>
@@ -154,28 +157,37 @@
     <t>Enter Bonus %</t>
   </si>
   <si>
+    <t>Probability Per Cell</t>
+  </si>
+  <si>
+    <t>Decay Factor</t>
+  </si>
+  <si>
+    <t>Distribucio exponencial discreta</t>
+  </si>
+  <si>
+    <t>Card Multiplier</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
     <t>Probability</t>
   </si>
   <si>
-    <t>Decay Factor</t>
-  </si>
-  <si>
-    <t>Distribucio exponencial discreta</t>
-  </si>
-  <si>
-    <t>Card Multiplier</t>
-  </si>
-  <si>
-    <t>Weight</t>
-  </si>
-  <si>
     <t>Probaility %</t>
   </si>
   <si>
     <t>Avg Spins per bonus</t>
   </si>
   <si>
-    <t>Chest Prob Per Spin</t>
+    <t>Prob Of No Chest In Any Cell Per Spin</t>
+  </si>
+  <si>
+    <t>Prob Of Chest In Any Cell Per Spin</t>
+  </si>
+  <si>
+    <t>Prob Of Chest In Any Total Cells - 1 Per Spin</t>
   </si>
   <si>
     <t>Avg Payer Cards per Spin</t>
@@ -187,18 +199,18 @@
     <t>EV Total Multiplier</t>
   </si>
   <si>
+    <t>Bonus Symbols</t>
+  </si>
+  <si>
+    <t>Probability Per 10 spins</t>
+  </si>
+  <si>
     <t>EV Bonus Per Spin</t>
   </si>
   <si>
     <t>EV Bonus</t>
   </si>
   <si>
-    <t>Expected Bonus Symbols</t>
-  </si>
-  <si>
-    <t>Bonus Symbols</t>
-  </si>
-  <si>
     <t>Level</t>
   </si>
   <si>
@@ -211,7 +223,13 @@
     <t>Bonus to upgrade</t>
   </si>
   <si>
-    <t>Probability &gt;= 3 bonus symbols</t>
+    <t>Probability to Lvl Up</t>
+  </si>
+  <si>
+    <t>Spins</t>
+  </si>
+  <si>
+    <t>EV Bonus Symbols</t>
   </si>
 </sst>
 </file>
@@ -268,7 +286,7 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="43">
+  <borders count="51">
     <border/>
     <border>
       <left style="thin">
@@ -663,6 +681,28 @@
       </bottom>
     </border>
     <border>
+      <left style="dotted">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="dotted">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -689,6 +729,32 @@
       <bottom style="thin">
         <color rgb="FFF6F8F9"/>
       </bottom>
+    </border>
+    <border>
+      <left style="dotted">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <right style="dotted">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="dotted">
+        <color rgb="FF000000"/>
+      </left>
+    </border>
+    <border>
+      <right style="dotted">
+        <color rgb="FF000000"/>
+      </right>
     </border>
     <border>
       <left style="thin">
@@ -774,11 +840,27 @@
         <color rgb="FF284E3F"/>
       </bottom>
     </border>
+    <border>
+      <left style="dotted">
+        <color rgb="FF000000"/>
+      </left>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="dotted">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="105">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -828,17 +910,20 @@
     <xf borderId="15" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="16" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="17" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="18" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="16" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="17" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="18" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="16" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="19" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
@@ -940,16 +1025,13 @@
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
     <xf borderId="30" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="16" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="35" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="18" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="36" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -964,7 +1046,7 @@
     <xf borderId="23" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="35" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="37" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="29" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -976,41 +1058,62 @@
     <xf borderId="28" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="36" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="38" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="35" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="37" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="16" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="39" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="40" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="41" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="42" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf borderId="18" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf borderId="16" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="43" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="44" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="45" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="46" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="16" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="17" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="31" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf borderId="16" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="37" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="38" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="39" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="40" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="16" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="31" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
@@ -1018,27 +1121,21 @@
     <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
     <xf borderId="15" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="13" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    <xf borderId="15" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="19" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
     <xf borderId="21" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -1051,17 +1148,29 @@
     <xf borderId="28" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="15" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="39" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
+    <xf borderId="40" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
     <xf borderId="41" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="47" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="38" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="44" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="42" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="48" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="49" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="50" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1224,7 +1333,7 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="K63:N66" displayName="Levels" name="Levels" id="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="K64:N67" displayName="Levels" name="Levels" id="7">
   <tableColumns count="4">
     <tableColumn name="Level" id="1"/>
     <tableColumn name="Scatters" id="2"/>
@@ -1440,11 +1549,11 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="4" max="7" width="13.38"/>
-    <col customWidth="1" min="8" max="8" width="15.0"/>
-    <col customWidth="1" min="9" max="9" width="14.88"/>
+    <col customWidth="1" min="8" max="8" width="17.63"/>
+    <col customWidth="1" min="9" max="9" width="16.13"/>
     <col customWidth="1" min="10" max="11" width="13.38"/>
     <col customWidth="1" min="12" max="12" width="15.25"/>
-    <col customWidth="1" min="13" max="13" width="15.5"/>
+    <col customWidth="1" min="13" max="13" width="21.88"/>
     <col customWidth="1" min="14" max="14" width="17.63"/>
     <col customWidth="1" min="15" max="15" width="15.25"/>
     <col customWidth="1" min="16" max="16" width="16.13"/>
@@ -1527,62 +1636,62 @@
       </c>
       <c r="C6" s="5">
         <f t="shared" ref="C6:G6" si="1">COUNTIF(B20:B69,"J")</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" s="5">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G6" s="11">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I6" s="10" t="s">
         <v>16</v>
       </c>
       <c r="J6" s="5">
         <f t="shared" ref="J6:N6" si="2">DIVIDE(C6,C15)+J13</f>
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
       <c r="K6" s="5">
         <f t="shared" si="2"/>
-        <v>0.18</v>
+        <v>0.24</v>
       </c>
       <c r="L6" s="5">
         <f t="shared" si="2"/>
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="M6" s="5">
         <f t="shared" si="2"/>
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
       <c r="N6" s="11">
         <f t="shared" si="2"/>
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="O6" s="5">
         <f t="shared" ref="O6:O12" si="5">J6*K6*L6*(1-M6)</f>
-        <v>0.004608</v>
+        <v>0.00722304</v>
       </c>
       <c r="P6" s="5">
         <f t="shared" ref="P6:P12" si="6">J6*K6*L6*M6*(1-N6)</f>
-        <v>0.0009216</v>
+        <v>0.0017791488</v>
       </c>
       <c r="Q6" s="11">
         <f t="shared" ref="Q6:Q12" si="7">J6*K6*L6*M6*N6</f>
-        <v>0.0002304</v>
+        <v>0.0005018112</v>
       </c>
       <c r="R6" s="12">
         <f>(O20*O6)+(P20*P6)+(Q20*Q6)</f>
-        <v>0.0029952</v>
+        <v>0.00434294784</v>
       </c>
     </row>
     <row r="7">
@@ -1591,62 +1700,62 @@
       </c>
       <c r="C7" s="5">
         <f t="shared" ref="C7:G7" si="3">COUNTIF(B20:B69,"Q")</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D7" s="5">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G7" s="11">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I7" s="10" t="s">
         <v>17</v>
       </c>
       <c r="J7" s="5">
         <f t="shared" ref="J7:N7" si="4">DIVIDE(C7,C15)+J13</f>
-        <v>0.14</v>
+        <v>0.18</v>
       </c>
       <c r="K7" s="5">
         <f t="shared" si="4"/>
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="L7" s="5">
         <f t="shared" si="4"/>
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="M7" s="5">
         <f t="shared" si="4"/>
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="N7" s="11">
         <f t="shared" si="4"/>
-        <v>0.18</v>
+        <v>0.22</v>
       </c>
       <c r="O7" s="5">
         <f t="shared" si="5"/>
-        <v>0.00448</v>
+        <v>0.00679536</v>
       </c>
       <c r="P7" s="5">
         <f t="shared" si="6"/>
-        <v>0.0009184</v>
+        <v>0.0014949792</v>
       </c>
       <c r="Q7" s="11">
         <f t="shared" si="7"/>
-        <v>0.0002016</v>
+        <v>0.0004216608</v>
       </c>
       <c r="R7" s="12">
         <f t="shared" ref="R7:R12" si="10">O21*O7+P21*P7+Q21*Q7</f>
-        <v>0.0028896</v>
+        <v>0.00386708256</v>
       </c>
     </row>
     <row r="8">
@@ -1655,11 +1764,11 @@
       </c>
       <c r="C8" s="5">
         <f t="shared" ref="C8:G8" si="8">COUNTIF(B20:B69,"K")</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D8" s="5">
         <f t="shared" si="8"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" si="8"/>
@@ -1667,26 +1776,26 @@
       </c>
       <c r="F8" s="5">
         <f t="shared" si="8"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G8" s="11">
         <f t="shared" si="8"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I8" s="10" t="s">
         <v>18</v>
       </c>
       <c r="J8" s="5">
         <f t="shared" ref="J8:N8" si="9">DIVIDE(C8,C15)+J13</f>
-        <v>0.14</v>
+        <v>0.16</v>
       </c>
       <c r="K8" s="5">
         <f t="shared" si="9"/>
-        <v>0.22</v>
+        <v>0.24</v>
       </c>
       <c r="L8" s="5">
         <f t="shared" si="9"/>
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="M8" s="5">
         <f t="shared" si="9"/>
@@ -1698,19 +1807,19 @@
       </c>
       <c r="O8" s="5">
         <f t="shared" si="5"/>
-        <v>0.0054208</v>
+        <v>0.006144</v>
       </c>
       <c r="P8" s="5">
         <f t="shared" si="6"/>
-        <v>0.00108416</v>
+        <v>0.0012288</v>
       </c>
       <c r="Q8" s="11">
         <f t="shared" si="7"/>
-        <v>0.00027104</v>
+        <v>0.0003072</v>
       </c>
       <c r="R8" s="12">
         <f t="shared" si="10"/>
-        <v>0.00352352</v>
+        <v>0.00328704</v>
       </c>
     </row>
     <row r="9">
@@ -1719,62 +1828,62 @@
       </c>
       <c r="C9" s="5">
         <f t="shared" ref="C9:G9" si="11">COUNTIF(B20:B69,"A")</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D9" s="5">
         <f t="shared" si="11"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" si="11"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G9" s="11">
         <f t="shared" si="11"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I9" s="10" t="s">
         <v>19</v>
       </c>
       <c r="J9" s="5">
         <f t="shared" ref="J9:N9" si="12">DIVIDE(C9,C15)+J13</f>
-        <v>0.14</v>
+        <v>0.18</v>
       </c>
       <c r="K9" s="5">
         <f t="shared" si="12"/>
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="L9" s="5">
         <f t="shared" si="12"/>
-        <v>0.16</v>
+        <v>0.2</v>
       </c>
       <c r="M9" s="5">
         <f t="shared" si="12"/>
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="N9" s="11">
         <f t="shared" si="12"/>
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="O9" s="5">
         <f t="shared" si="5"/>
-        <v>0.003584</v>
+        <v>0.0061776</v>
       </c>
       <c r="P9" s="5">
         <f t="shared" si="6"/>
-        <v>0.0007168</v>
+        <v>0.001359072</v>
       </c>
       <c r="Q9" s="11">
         <f t="shared" si="7"/>
-        <v>0.0001792</v>
+        <v>0.000383328</v>
       </c>
       <c r="R9" s="12">
         <f t="shared" si="10"/>
-        <v>0.0023296</v>
+        <v>0.0035155296</v>
       </c>
     </row>
     <row r="10">
@@ -1814,31 +1923,31 @@
       </c>
       <c r="L10" s="5">
         <f t="shared" si="14"/>
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="M10" s="5">
         <f t="shared" si="14"/>
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="N10" s="11">
         <f t="shared" si="14"/>
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="O10" s="5">
         <f t="shared" si="5"/>
-        <v>0.0022016</v>
+        <v>0.0019712</v>
       </c>
       <c r="P10" s="5">
         <f t="shared" si="6"/>
-        <v>0.000301056</v>
+        <v>0.000231168</v>
       </c>
       <c r="Q10" s="11">
         <f t="shared" si="7"/>
-        <v>0.000057344</v>
+        <v>0.000037632</v>
       </c>
       <c r="R10" s="12">
         <f t="shared" si="10"/>
-        <v>0.003448832</v>
+        <v>0.002890496</v>
       </c>
     </row>
     <row r="11">
@@ -1878,31 +1987,31 @@
       </c>
       <c r="L11" s="5">
         <f t="shared" si="16"/>
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="M11" s="5">
         <f t="shared" si="16"/>
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="N11" s="11">
         <f t="shared" si="16"/>
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="O11" s="5">
         <f t="shared" si="5"/>
-        <v>0.00154112</v>
+        <v>0.00137984</v>
       </c>
       <c r="P11" s="5">
         <f t="shared" si="6"/>
-        <v>0.0002157568</v>
+        <v>0.0001655808</v>
       </c>
       <c r="Q11" s="11">
         <f t="shared" si="7"/>
-        <v>0.0000351232</v>
+        <v>0.0000225792</v>
       </c>
       <c r="R11" s="12">
         <f t="shared" si="10"/>
-        <v>0.003528448</v>
+        <v>0.002972928</v>
       </c>
     </row>
     <row r="12">
@@ -1942,31 +2051,31 @@
       </c>
       <c r="L12" s="5">
         <f t="shared" si="18"/>
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="M12" s="5">
         <f t="shared" si="18"/>
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="N12" s="11">
         <f t="shared" si="18"/>
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="O12" s="13">
         <f t="shared" si="5"/>
-        <v>0.00101376</v>
+        <v>0.000864</v>
       </c>
       <c r="P12" s="13">
         <f t="shared" si="6"/>
-        <v>0.0001216512</v>
+        <v>0.0000864</v>
       </c>
       <c r="Q12" s="14">
         <f t="shared" si="7"/>
-        <v>0.0000165888</v>
+        <v>0.0000096</v>
       </c>
       <c r="R12" s="15">
         <f t="shared" si="10"/>
-        <v>0.0034154496</v>
+        <v>0.0026592</v>
       </c>
     </row>
     <row r="13">
@@ -1983,38 +2092,38 @@
       </c>
       <c r="E13" s="5">
         <f t="shared" si="19"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" si="19"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G13" s="11">
         <f t="shared" si="19"/>
-        <v>3</v>
-      </c>
-      <c r="I13" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I13" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="13">
         <f t="shared" ref="J13:N13" si="20">DIVIDE(C13,C15)</f>
         <v>0</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K13" s="13">
         <f t="shared" si="20"/>
         <v>0.06</v>
       </c>
-      <c r="L13" s="5">
+      <c r="L13" s="13">
         <f t="shared" si="20"/>
-        <v>0.06</v>
-      </c>
-      <c r="M13" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="M13" s="13">
         <f t="shared" si="20"/>
-        <v>0.06</v>
-      </c>
-      <c r="N13" s="11">
+        <v>0.04</v>
+      </c>
+      <c r="N13" s="14">
         <f t="shared" si="20"/>
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="R13" s="5"/>
     </row>
@@ -2024,61 +2133,26 @@
       </c>
       <c r="C14" s="5">
         <f t="shared" ref="C14:G14" si="21">COUNTIF(B20:B69,"Scatter")</f>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D14" s="5">
         <f t="shared" si="21"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" si="21"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" si="21"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G14" s="11">
         <f t="shared" si="21"/>
-        <v>8</v>
-      </c>
-      <c r="I14" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="J14" s="13">
-        <f t="shared" ref="J14:N14" si="22">DIVIDE(C14,C15)</f>
-        <v>0.16</v>
-      </c>
-      <c r="K14" s="13">
-        <f t="shared" si="22"/>
-        <v>0.14</v>
-      </c>
-      <c r="L14" s="13">
-        <f t="shared" si="22"/>
-        <v>0.14</v>
-      </c>
-      <c r="M14" s="13">
-        <f t="shared" si="22"/>
-        <v>0.16</v>
-      </c>
-      <c r="N14" s="14">
-        <f t="shared" si="22"/>
-        <v>0.16</v>
-      </c>
-      <c r="O14" s="17">
-        <f>J14*K14*L14*(1-M14)</f>
-        <v>0.00263424</v>
-      </c>
-      <c r="P14" s="18">
-        <f>J14*K14*L14*M14*(1-N14)</f>
-        <v>0.0004214784</v>
-      </c>
-      <c r="Q14" s="19">
-        <f>J14*K14*L14*M14*N14</f>
-        <v>0.0000802816</v>
+        <v>1</v>
       </c>
       <c r="R14" s="5"/>
-      <c r="U14" s="20" t="s">
+      <c r="U14" s="17" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2087,1074 +2161,1126 @@
         <v>26</v>
       </c>
       <c r="C15" s="13">
-        <f t="shared" ref="C15:G15" si="23">SUM(C6:C14)</f>
+        <f t="shared" ref="C15:G15" si="22">SUM(C6:C14)</f>
         <v>50</v>
       </c>
       <c r="D15" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>50</v>
       </c>
       <c r="E15" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>50</v>
       </c>
       <c r="F15" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>50</v>
       </c>
       <c r="G15" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>50</v>
+      </c>
+      <c r="I15" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="J15" s="19">
+        <f>DIVIDE(C14*Grid[Rows],C15)</f>
+        <v>0.12</v>
+      </c>
+      <c r="K15" s="19">
+        <f>DIVIDE(D14*Grid[Rows],D15)</f>
+        <v>0.06</v>
+      </c>
+      <c r="L15" s="19">
+        <f>DIVIDE(E14*Grid[Rows],E15)</f>
+        <v>0.06</v>
+      </c>
+      <c r="M15" s="19">
+        <f>DIVIDE(F14*Grid[Rows],F15)</f>
+        <v>0.06</v>
+      </c>
+      <c r="N15" s="20">
+        <f>DIVIDE(G14*Grid[Rows],G15)</f>
+        <v>0.06</v>
+      </c>
+      <c r="O15" s="21">
+        <f> J15*K15*L15*(1-M15)*(1-N15)
++ J15*K15*M15*(1-L15)*(1-N15)
++ J15*K15*N15*(1-L15)*(1-M15)
++ J15*L15*M15*(1-K15)*(1-N15)
++ J15*L15*N15*(1-K15)*(1-M15)
++ J15*M15*N15*(1-K15)*(1-L15)
++ K15*L15*M15*(1-J15)*(1-N15)
++ K15*L15*N15*(1-J15)*(1-M15)
++ K15*M15*N15*(1-J15)*(1-L15)
++ L15*M15*N15*(1-J15)*(1-K15)
+</f>
+        <v>0.003004992</v>
+      </c>
+      <c r="P15" s="19">
+        <f> J15*K15*L15*M15*(1-N15)
++ J15*K15*L15*N15*(1-M15)
++ J15*K15*M15*N15*(1-L15)
++ J15*L15*M15*N15*(1-K15)
++ K15*L15*M15*N15*(1-J15)
+</f>
+        <v>0.000108864</v>
+      </c>
+      <c r="Q15" s="20">
+        <f>PRODUCT(J15:N15)
+</f>
+        <v>0.0000015552</v>
       </c>
     </row>
     <row r="19">
       <c r="B19" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="C19" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="21" t="s">
+      <c r="D19" s="22" t="s">
         <v>30</v>
       </c>
+      <c r="E19" s="22" t="s">
+        <v>31</v>
+      </c>
       <c r="F19" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I19" s="21" t="s">
+      <c r="I19" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="J19" s="21" t="s">
+      <c r="J19" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="K19" s="21" t="s">
+      <c r="K19" s="22" t="s">
         <v>5</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N19" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="O19" s="21" t="s">
+      <c r="N19" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="P19" s="21" t="s">
+      <c r="O19" s="22" t="s">
         <v>34</v>
       </c>
+      <c r="P19" s="22" t="s">
+        <v>35</v>
+      </c>
       <c r="Q19" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20">
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="I20" s="28">
+        <v>1.0</v>
+      </c>
+      <c r="J20" s="28">
+        <v>1.0</v>
+      </c>
+      <c r="K20" s="28">
+        <v>1.0</v>
+      </c>
+      <c r="L20" s="29">
+        <v>1.0</v>
+      </c>
+      <c r="N20" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="O20" s="31">
+        <v>0.3</v>
+      </c>
+      <c r="P20" s="31">
+        <v>0.8</v>
+      </c>
+      <c r="Q20" s="32">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" s="36">
+        <v>0.0</v>
+      </c>
+      <c r="I21" s="37">
+        <v>0.0</v>
+      </c>
+      <c r="J21" s="37">
+        <v>0.0</v>
+      </c>
+      <c r="K21" s="37">
+        <v>0.0</v>
+      </c>
+      <c r="L21" s="38">
+        <v>0.0</v>
+      </c>
+      <c r="N21" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="O21" s="40">
+        <v>0.3</v>
+      </c>
+      <c r="P21" s="40">
+        <v>0.8</v>
+      </c>
+      <c r="Q21" s="41">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" s="27">
+        <v>2.0</v>
+      </c>
+      <c r="I22" s="28">
+        <v>2.0</v>
+      </c>
+      <c r="J22" s="28">
+        <v>2.0</v>
+      </c>
+      <c r="K22" s="28">
+        <v>2.0</v>
+      </c>
+      <c r="L22" s="29">
+        <v>2.0</v>
+      </c>
+      <c r="N22" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="O22" s="31">
+        <v>0.3</v>
+      </c>
+      <c r="P22" s="31">
+        <v>0.8</v>
+      </c>
+      <c r="Q22" s="32">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" s="36">
+        <v>0.0</v>
+      </c>
+      <c r="I23" s="37">
+        <v>1.0</v>
+      </c>
+      <c r="J23" s="37">
+        <v>2.0</v>
+      </c>
+      <c r="K23" s="37">
+        <v>1.0</v>
+      </c>
+      <c r="L23" s="38">
+        <v>0.0</v>
+      </c>
+      <c r="N23" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="O23" s="40">
+        <v>0.3</v>
+      </c>
+      <c r="P23" s="40">
+        <v>0.8</v>
+      </c>
+      <c r="Q23" s="41">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" s="27">
+        <v>2.0</v>
+      </c>
+      <c r="I24" s="28">
+        <v>1.0</v>
+      </c>
+      <c r="J24" s="28">
+        <v>0.0</v>
+      </c>
+      <c r="K24" s="28">
+        <v>1.0</v>
+      </c>
+      <c r="L24" s="29">
+        <v>2.0</v>
+      </c>
+      <c r="N24" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="O24" s="31">
+        <v>1.0</v>
+      </c>
+      <c r="P24" s="31">
+        <v>3.0</v>
+      </c>
+      <c r="Q24" s="32">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="H25" s="36">
+        <v>0.0</v>
+      </c>
+      <c r="I25" s="37">
+        <v>0.0</v>
+      </c>
+      <c r="J25" s="37">
+        <v>1.0</v>
+      </c>
+      <c r="K25" s="37">
+        <v>0.0</v>
+      </c>
+      <c r="L25" s="38">
+        <v>0.0</v>
+      </c>
+      <c r="N25" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="24" t="s">
+      <c r="O25" s="40">
+        <v>1.5</v>
+      </c>
+      <c r="P25" s="40">
+        <v>4.5</v>
+      </c>
+      <c r="Q25" s="41">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" s="27">
+        <v>2.0</v>
+      </c>
+      <c r="I26" s="28">
+        <v>2.0</v>
+      </c>
+      <c r="J26" s="28">
+        <v>1.0</v>
+      </c>
+      <c r="K26" s="28">
+        <v>2.0</v>
+      </c>
+      <c r="L26" s="29">
+        <v>2.0</v>
+      </c>
+      <c r="N26" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="E20" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F20" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="I20" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="J20" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="K20" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="L20" s="28">
-        <v>1.0</v>
-      </c>
-      <c r="N20" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="O20" s="30">
-        <v>0.35</v>
-      </c>
-      <c r="P20" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="Q20" s="31">
+      <c r="O26" s="43">
         <v>2.0</v>
       </c>
-    </row>
-    <row r="21">
-      <c r="B21" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="H21" s="35">
+      <c r="P26" s="43">
+        <v>8.0</v>
+      </c>
+      <c r="Q26" s="44">
+        <v>25.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27" s="36">
         <v>0.0</v>
       </c>
-      <c r="I21" s="36">
+      <c r="I27" s="37">
+        <v>1.0</v>
+      </c>
+      <c r="J27" s="37">
+        <v>1.0</v>
+      </c>
+      <c r="K27" s="37">
+        <v>1.0</v>
+      </c>
+      <c r="L27" s="38">
         <v>0.0</v>
       </c>
-      <c r="J21" s="36">
-        <v>0.0</v>
-      </c>
-      <c r="K21" s="36">
-        <v>0.0</v>
-      </c>
-      <c r="L21" s="37">
-        <v>0.0</v>
-      </c>
-      <c r="N21" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="O21" s="39">
-        <v>0.35</v>
-      </c>
-      <c r="P21" s="39">
-        <v>1.0</v>
-      </c>
-      <c r="Q21" s="40">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="B22" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="H22" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="I22" s="27">
-        <v>2.0</v>
-      </c>
-      <c r="J22" s="27">
-        <v>2.0</v>
-      </c>
-      <c r="K22" s="27">
-        <v>2.0</v>
-      </c>
-      <c r="L22" s="28">
-        <v>2.0</v>
-      </c>
-      <c r="N22" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="O22" s="30">
-        <v>0.35</v>
-      </c>
-      <c r="P22" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="Q22" s="31">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="B23" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="H23" s="35">
-        <v>0.0</v>
-      </c>
-      <c r="I23" s="36">
-        <v>1.0</v>
-      </c>
-      <c r="J23" s="36">
-        <v>2.0</v>
-      </c>
-      <c r="K23" s="36">
-        <v>1.0</v>
-      </c>
-      <c r="L23" s="37">
-        <v>0.0</v>
-      </c>
-      <c r="N23" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="O23" s="39">
-        <v>0.35</v>
-      </c>
-      <c r="P23" s="39">
-        <v>1.0</v>
-      </c>
-      <c r="Q23" s="40">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="B24" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="D24" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="F24" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="H24" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="I24" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="J24" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="K24" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="L24" s="28">
-        <v>2.0</v>
-      </c>
-      <c r="N24" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="O24" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="P24" s="30">
-        <v>3.0</v>
-      </c>
-      <c r="Q24" s="31">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="B25" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="E25" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="F25" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="H25" s="35">
-        <v>0.0</v>
-      </c>
-      <c r="I25" s="36">
-        <v>0.0</v>
-      </c>
-      <c r="J25" s="36">
-        <v>1.0</v>
-      </c>
-      <c r="K25" s="36">
-        <v>0.0</v>
-      </c>
-      <c r="L25" s="37">
-        <v>0.0</v>
-      </c>
-      <c r="N25" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="O25" s="39">
-        <v>1.5</v>
-      </c>
-      <c r="P25" s="39">
-        <v>4.5</v>
-      </c>
-      <c r="Q25" s="40">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="B26" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="D26" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="E26" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="F26" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="H26" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="I26" s="27">
-        <v>2.0</v>
-      </c>
-      <c r="J26" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="K26" s="27">
-        <v>2.0</v>
-      </c>
-      <c r="L26" s="28">
-        <v>2.0</v>
-      </c>
-      <c r="N26" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="O26" s="42">
-        <v>2.0</v>
-      </c>
-      <c r="P26" s="42">
-        <v>8.0</v>
-      </c>
-      <c r="Q26" s="43">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="B27" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="D27" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="E27" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="F27" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="H27" s="35">
-        <v>0.0</v>
-      </c>
-      <c r="I27" s="36">
-        <v>1.0</v>
-      </c>
-      <c r="J27" s="36">
-        <v>1.0</v>
-      </c>
-      <c r="K27" s="36">
-        <v>1.0</v>
-      </c>
-      <c r="L27" s="37">
-        <v>0.0</v>
-      </c>
-      <c r="N27" s="44"/>
+      <c r="N27" s="45"/>
       <c r="O27" s="5"/>
       <c r="P27" s="5"/>
       <c r="Q27" s="5"/>
     </row>
     <row r="28">
-      <c r="B28" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="C28" s="24" t="s">
+      <c r="B28" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="24" t="s">
+      <c r="D28" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E28" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F28" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="H28" s="26">
+      <c r="E28" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="H28" s="27">
         <v>2.0</v>
       </c>
-      <c r="I28" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="J28" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="K28" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="L28" s="28">
+      <c r="I28" s="28">
+        <v>1.0</v>
+      </c>
+      <c r="J28" s="28">
+        <v>1.0</v>
+      </c>
+      <c r="K28" s="28">
+        <v>1.0</v>
+      </c>
+      <c r="L28" s="29">
         <v>2.0</v>
       </c>
-      <c r="N28" s="45"/>
-      <c r="O28" s="46" t="s">
-        <v>36</v>
-      </c>
-      <c r="P28" s="46" t="s">
+      <c r="N28" s="46"/>
+      <c r="O28" s="47" t="s">
         <v>37</v>
       </c>
+      <c r="P28" s="47" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="29">
-      <c r="B29" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="C29" s="33" t="s">
+      <c r="B29" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="E29" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="F29" s="34" t="s">
+      <c r="D29" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="H29" s="35">
-        <v>1.0</v>
-      </c>
-      <c r="I29" s="36">
+      <c r="H29" s="36">
+        <v>1.0</v>
+      </c>
+      <c r="I29" s="37">
         <v>0.0</v>
       </c>
-      <c r="J29" s="36">
+      <c r="J29" s="37">
         <v>0.0</v>
       </c>
-      <c r="K29" s="36">
+      <c r="K29" s="37">
         <v>0.0</v>
       </c>
-      <c r="L29" s="37">
-        <v>1.0</v>
-      </c>
-      <c r="N29" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="O29" s="48">
+      <c r="L29" s="38">
+        <v>1.0</v>
+      </c>
+      <c r="N29" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="O29" s="49">
         <f>(R6+R7+R8+R9+R10+R11+R12) * ROWS(Paylines[])</f>
-        <v>0.442612992</v>
-      </c>
-      <c r="P29" s="48">
-        <f t="shared" ref="P29:P31" si="24">O29*100</f>
-        <v>44.2612992</v>
-      </c>
-      <c r="Q29" s="49"/>
+        <v>0.47070448</v>
+      </c>
+      <c r="P29" s="49">
+        <f t="shared" ref="P29:P31" si="23">O29*100</f>
+        <v>47.070448</v>
+      </c>
+      <c r="Q29" s="50"/>
     </row>
     <row r="30">
-      <c r="B30" s="23" t="s">
+      <c r="B30" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C30" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="D30" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="E30" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="F30" s="25" t="s">
+      <c r="C30" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="H30" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="I30" s="27">
+      <c r="H30" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="I30" s="28">
         <v>2.0</v>
       </c>
-      <c r="J30" s="27">
+      <c r="J30" s="28">
         <v>2.0</v>
       </c>
-      <c r="K30" s="27">
+      <c r="K30" s="28">
         <v>2.0</v>
       </c>
-      <c r="L30" s="28">
-        <v>1.0</v>
-      </c>
-      <c r="N30" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="O30" s="48">
-        <f>N59*M43</f>
-        <v>0.5200522445</v>
-      </c>
-      <c r="P30" s="48">
-        <f t="shared" si="24"/>
-        <v>52.00522445</v>
-      </c>
-      <c r="Q30" s="49"/>
+      <c r="L30" s="29">
+        <v>1.0</v>
+      </c>
+      <c r="N30" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="O30" s="49">
+        <f>N61*M43</f>
+        <v>0.4918289874</v>
+      </c>
+      <c r="P30" s="49">
+        <f t="shared" si="23"/>
+        <v>49.18289874</v>
+      </c>
+      <c r="Q30" s="50"/>
       <c r="R30" s="5"/>
       <c r="S30" s="5"/>
     </row>
     <row r="31">
-      <c r="B31" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="C31" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="D31" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="E31" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="F31" s="34" t="s">
+      <c r="B31" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="H31" s="35">
-        <v>1.0</v>
-      </c>
-      <c r="I31" s="36">
+      <c r="H31" s="36">
+        <v>1.0</v>
+      </c>
+      <c r="I31" s="37">
         <v>0.0</v>
       </c>
-      <c r="J31" s="36">
-        <v>1.0</v>
-      </c>
-      <c r="K31" s="36">
+      <c r="J31" s="37">
+        <v>1.0</v>
+      </c>
+      <c r="K31" s="37">
         <v>0.0</v>
       </c>
-      <c r="L31" s="37">
-        <v>1.0</v>
-      </c>
-      <c r="N31" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="O31" s="48">
+      <c r="L31" s="38">
+        <v>1.0</v>
+      </c>
+      <c r="N31" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="O31" s="49">
         <f>(O29)+(O30)</f>
-        <v>0.9626652365</v>
-      </c>
-      <c r="P31" s="48">
-        <f t="shared" si="24"/>
-        <v>96.26652365</v>
-      </c>
-      <c r="Q31" s="50"/>
+        <v>0.9625334674</v>
+      </c>
+      <c r="P31" s="49">
+        <f t="shared" si="23"/>
+        <v>96.25334674</v>
+      </c>
+      <c r="Q31" s="51"/>
       <c r="R31" s="5"/>
       <c r="S31" s="5"/>
     </row>
     <row r="32">
-      <c r="B32" s="23" t="s">
+      <c r="B32" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D32" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="E32" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="F32" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="H32" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="I32" s="27">
+      <c r="C32" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="H32" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="I32" s="28">
         <v>2.0</v>
       </c>
-      <c r="J32" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="K32" s="27">
+      <c r="J32" s="28">
+        <v>1.0</v>
+      </c>
+      <c r="K32" s="28">
         <v>2.0</v>
       </c>
-      <c r="L32" s="28">
+      <c r="L32" s="29">
         <v>1.0</v>
       </c>
       <c r="R32" s="5"/>
       <c r="S32" s="5"/>
     </row>
     <row r="33">
-      <c r="B33" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="C33" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="D33" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="E33" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="F33" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="H33" s="35">
+      <c r="B33" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="F33" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="H33" s="36">
         <v>0.0</v>
       </c>
-      <c r="I33" s="36">
+      <c r="I33" s="37">
         <v>0.0</v>
       </c>
-      <c r="J33" s="36">
-        <v>1.0</v>
-      </c>
-      <c r="K33" s="36">
-        <v>1.0</v>
-      </c>
-      <c r="L33" s="37">
+      <c r="J33" s="37">
+        <v>1.0</v>
+      </c>
+      <c r="K33" s="37">
+        <v>1.0</v>
+      </c>
+      <c r="L33" s="38">
         <v>0.0</v>
       </c>
       <c r="R33" s="5"/>
       <c r="S33" s="5"/>
     </row>
     <row r="34">
-      <c r="B34" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="C34" s="24" t="s">
+      <c r="B34" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="E34" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F34" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="H34" s="26">
+      <c r="D34" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="F34" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="H34" s="27">
         <v>2.0</v>
       </c>
-      <c r="I34" s="27">
+      <c r="I34" s="28">
         <v>2.0</v>
       </c>
-      <c r="J34" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="K34" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="L34" s="28">
+      <c r="J34" s="28">
+        <v>1.0</v>
+      </c>
+      <c r="K34" s="28">
+        <v>1.0</v>
+      </c>
+      <c r="L34" s="29">
         <v>2.0</v>
       </c>
       <c r="R34" s="5"/>
       <c r="S34" s="5"/>
     </row>
     <row r="35">
-      <c r="B35" s="32" t="s">
+      <c r="B35" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="D35" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="E35" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="F35" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="H35" s="35">
+      <c r="C35" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="F35" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="H35" s="36">
         <v>0.0</v>
       </c>
-      <c r="I35" s="36">
-        <v>1.0</v>
-      </c>
-      <c r="J35" s="36">
+      <c r="I35" s="37">
+        <v>1.0</v>
+      </c>
+      <c r="J35" s="37">
         <v>0.0</v>
       </c>
-      <c r="K35" s="36">
-        <v>1.0</v>
-      </c>
-      <c r="L35" s="37">
+      <c r="K35" s="37">
+        <v>1.0</v>
+      </c>
+      <c r="L35" s="38">
         <v>0.0</v>
       </c>
       <c r="R35" s="5"/>
       <c r="S35" s="5"/>
     </row>
     <row r="36">
-      <c r="B36" s="23" t="s">
+      <c r="B36" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C36" s="24" t="s">
+      <c r="C36" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D36" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="E36" s="24" t="s">
+      <c r="D36" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="F36" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="H36" s="26">
+      <c r="F36" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="H36" s="27">
         <v>2.0</v>
       </c>
-      <c r="I36" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="J36" s="27">
+      <c r="I36" s="28">
+        <v>1.0</v>
+      </c>
+      <c r="J36" s="28">
         <v>2.0</v>
       </c>
-      <c r="K36" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="L36" s="28">
+      <c r="K36" s="28">
+        <v>1.0</v>
+      </c>
+      <c r="L36" s="29">
         <v>2.0</v>
       </c>
       <c r="R36" s="5"/>
       <c r="S36" s="5"/>
     </row>
     <row r="37">
-      <c r="B37" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="C37" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="D37" s="33" t="s">
+      <c r="B37" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="E37" s="33" t="s">
+      <c r="E37" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="F37" s="34" t="s">
+      <c r="F37" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="H37" s="35">
+      <c r="H37" s="36">
         <v>0.0</v>
       </c>
-      <c r="I37" s="36">
+      <c r="I37" s="37">
         <v>0.0</v>
       </c>
-      <c r="J37" s="36">
-        <v>1.0</v>
-      </c>
-      <c r="K37" s="36">
+      <c r="J37" s="37">
+        <v>1.0</v>
+      </c>
+      <c r="K37" s="37">
         <v>2.0</v>
       </c>
-      <c r="L37" s="37">
+      <c r="L37" s="38">
         <v>2.0</v>
       </c>
       <c r="R37" s="5"/>
       <c r="S37" s="5"/>
     </row>
     <row r="38">
-      <c r="B38" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="C38" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D38" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E38" s="24" t="s">
+      <c r="B38" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E38" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="F38" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="H38" s="26">
+      <c r="F38" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="H38" s="27">
         <v>2.0</v>
       </c>
-      <c r="I38" s="27">
+      <c r="I38" s="28">
         <v>2.0</v>
       </c>
-      <c r="J38" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="K38" s="27">
+      <c r="J38" s="28">
+        <v>1.0</v>
+      </c>
+      <c r="K38" s="28">
         <v>0.0</v>
       </c>
-      <c r="L38" s="28">
+      <c r="L38" s="29">
         <v>0.0</v>
       </c>
       <c r="R38" s="5"/>
       <c r="S38" s="5"/>
     </row>
     <row r="39">
-      <c r="B39" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="C39" s="33" t="s">
+      <c r="B39" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="D39" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="E39" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="F39" s="34" t="s">
+      <c r="D39" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="E39" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="F39" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="H39" s="52">
+        <v>1.0</v>
+      </c>
+      <c r="I39" s="53">
+        <v>1.0</v>
+      </c>
+      <c r="J39" s="53">
+        <v>0.0</v>
+      </c>
+      <c r="K39" s="53">
+        <v>0.0</v>
+      </c>
+      <c r="L39" s="54">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="H39" s="51">
-        <v>1.0</v>
-      </c>
-      <c r="I39" s="52">
-        <v>1.0</v>
-      </c>
-      <c r="J39" s="52">
-        <v>0.0</v>
-      </c>
-      <c r="K39" s="52">
-        <v>0.0</v>
-      </c>
-      <c r="L39" s="53">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="B40" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="C40" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="D40" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E40" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="F40" s="25" t="s">
+      <c r="E40" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="F40" s="26" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="41">
-      <c r="B41" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="C41" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="D41" s="33" t="s">
+      <c r="B41" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="E41" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="F41" s="34" t="s">
+      <c r="E41" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="F41" s="35" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="42">
-      <c r="B42" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C42" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D42" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="E42" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="F42" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="H42" s="54" t="s">
-        <v>32</v>
-      </c>
-      <c r="I42" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="J42" s="21" t="s">
+      <c r="B42" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E42" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="F42" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="H42" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="I42" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="K42" s="21" t="s">
+      <c r="J42" s="22" t="s">
         <v>43</v>
       </c>
+      <c r="K42" s="22" t="s">
+        <v>44</v>
+      </c>
       <c r="L42" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M42" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="N42" s="55" t="s">
         <v>46</v>
       </c>
+      <c r="N42" s="9" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="43">
-      <c r="B43" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="C43" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="D43" s="33" t="s">
+      <c r="B43" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="E43" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="F43" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="H43" s="41" t="s">
-        <v>47</v>
+      <c r="E43" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="F43" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="H43" s="42" t="s">
+        <v>48</v>
       </c>
       <c r="I43" s="56">
-        <v>0.58</v>
+        <v>0.6</v>
       </c>
       <c r="J43" s="56">
-        <v>0.18</v>
+        <v>0.337</v>
       </c>
       <c r="K43" s="56">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="L43" s="4">
-        <v>0.04</v>
+        <v>0.012</v>
       </c>
       <c r="M43" s="15">
-        <f>O14+P14+Q14</f>
-        <v>0.003136</v>
+        <f>O15+P15+Q15</f>
+        <v>0.0031154112</v>
       </c>
       <c r="N43" s="15">
         <f>M43*100</f>
-        <v>0.3136</v>
+        <v>0.31154112</v>
       </c>
     </row>
     <row r="44">
-      <c r="B44" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="C44" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="D44" s="24" t="s">
+      <c r="B44" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="E44" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="F44" s="25" t="s">
-        <v>18</v>
+      <c r="E44" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="F44" s="26" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="45">
-      <c r="B45" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="C45" s="33" t="s">
+      <c r="B45" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="D45" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="E45" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="F45" s="34" t="s">
+      <c r="D45" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="F45" s="35" t="s">
         <v>19</v>
       </c>
       <c r="H45" s="57" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I45" s="58">
-        <v>0.8</v>
+        <v>0.815</v>
       </c>
       <c r="J45" s="59" t="s">
-        <v>49</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="L45" s="5"/>
     </row>
     <row r="46">
-      <c r="B46" s="23" t="s">
+      <c r="B46" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C46" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="D46" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="E46" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="F46" s="25" t="s">
+      <c r="C46" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E46" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F46" s="26" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="47">
-      <c r="B47" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="C47" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="D47" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="E47" s="33" t="s">
+      <c r="B47" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="C47" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="D47" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="E47" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="F47" s="34" t="s">
-        <v>24</v>
+      <c r="F47" s="35" t="s">
+        <v>17</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I47" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="J47" s="21" t="s">
-        <v>47</v>
+      <c r="I47" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="J47" s="22" t="s">
+        <v>53</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="48">
-      <c r="B48" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="C48" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D48" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E48" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="F48" s="25" t="s">
+      <c r="B48" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E48" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F48" s="26" t="s">
         <v>19</v>
       </c>
       <c r="H48" s="60">
@@ -3166,27 +3292,27 @@
       </c>
       <c r="J48" s="62">
         <f>DIVIDE(I48,I58)</f>
-        <v>0.2240580499</v>
+        <v>0.212471093</v>
       </c>
       <c r="K48" s="63">
-        <f t="shared" ref="K48:K58" si="25">J48*100</f>
-        <v>22.40580499</v>
+        <f t="shared" ref="K48:K58" si="24">J48*100</f>
+        <v>21.2471093</v>
       </c>
     </row>
     <row r="49">
-      <c r="B49" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="C49" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="D49" s="33" t="s">
+      <c r="B49" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="D49" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="E49" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="F49" s="34" t="s">
+      <c r="E49" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="F49" s="35" t="s">
         <v>23</v>
       </c>
       <c r="H49" s="64">
@@ -3194,31 +3320,41 @@
       </c>
       <c r="I49" s="65">
         <f>POWER(I45,H49-1)</f>
-        <v>0.8</v>
+        <v>0.815</v>
       </c>
       <c r="J49" s="66">
         <f>DIVIDE(I49,I58)</f>
-        <v>0.1792464399</v>
+        <v>0.1731639408</v>
       </c>
       <c r="K49" s="67">
-        <f t="shared" si="25"/>
-        <v>17.92464399</v>
+        <f t="shared" si="24"/>
+        <v>17.31639408</v>
+      </c>
+      <c r="M49" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="N49" s="20">
+        <f>( O15*( M65 + $I$65*(M66-M65) + POWER($I$65,2)*(M67-M66) )
+ + P15*( M66 + $I$65*(M67-M66) )
+ + Q15* M67 ) / $M$43
+</f>
+        <v>13.74681601</v>
       </c>
     </row>
     <row r="50">
-      <c r="B50" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="C50" s="24" t="s">
+      <c r="B50" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C50" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="D50" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="E50" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F50" s="25" t="s">
+      <c r="D50" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E50" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="F50" s="26" t="s">
         <v>17</v>
       </c>
       <c r="H50" s="60">
@@ -3226,38 +3362,31 @@
       </c>
       <c r="I50" s="61">
         <f>POWER(I45,H50-1)</f>
-        <v>0.64</v>
+        <v>0.664225</v>
       </c>
       <c r="J50" s="62">
         <f>DIVIDE(I50,I58)</f>
-        <v>0.1433971519</v>
+        <v>0.1411286118</v>
       </c>
       <c r="K50" s="68">
-        <f t="shared" si="25"/>
-        <v>14.33971519</v>
-      </c>
-      <c r="M50" s="69" t="s">
-        <v>53</v>
-      </c>
-      <c r="N50" s="70">
-        <f>DIVIDE((M64*O14)+(M65*P14)+(M66*Q14),M43)+(I68*(M65-M64))+((M66-M65)*POW(I68,2))</f>
-        <v>30.13815873</v>
+        <f t="shared" si="24"/>
+        <v>14.11286118</v>
       </c>
     </row>
     <row r="51">
-      <c r="B51" s="32" t="s">
+      <c r="B51" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="C51" s="33" t="s">
+      <c r="C51" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="D51" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="E51" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="F51" s="34" t="s">
+      <c r="D51" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="E51" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="F51" s="35" t="s">
         <v>16</v>
       </c>
       <c r="H51" s="64">
@@ -3265,70 +3394,77 @@
       </c>
       <c r="I51" s="65">
         <f>POWER(I45,H51-1)</f>
-        <v>0.512</v>
+        <v>0.541343375</v>
       </c>
       <c r="J51" s="66">
         <f>DIVIDE(I51,I58)</f>
-        <v>0.1147177216</v>
+        <v>0.1150198186</v>
       </c>
       <c r="K51" s="67">
-        <f t="shared" si="25"/>
-        <v>11.47177216</v>
+        <f t="shared" si="24"/>
+        <v>11.50198186</v>
+      </c>
+      <c r="M51" s="69" t="s">
+        <v>56</v>
+      </c>
+      <c r="N51" s="70">
+        <f>POW((1-K43),B3*C3)</f>
+        <v>0.3952917988</v>
       </c>
     </row>
     <row r="52">
-      <c r="B52" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="C52" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="D52" s="24" t="s">
+      <c r="B52" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D52" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="E52" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="F52" s="25" t="s">
-        <v>24</v>
+      <c r="E52" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F52" s="26" t="s">
+        <v>19</v>
       </c>
       <c r="H52" s="60">
         <v>5.0</v>
       </c>
       <c r="I52" s="61">
         <f>POWER(I45,H52-1)</f>
-        <v>0.4096</v>
+        <v>0.4411948506</v>
       </c>
       <c r="J52" s="62">
         <f>DIVIDE(I52,I58)</f>
-        <v>0.09177417725</v>
+        <v>0.09374115215</v>
       </c>
       <c r="K52" s="68">
-        <f t="shared" si="25"/>
-        <v>9.177417725</v>
-      </c>
-      <c r="M52" s="69" t="s">
-        <v>54</v>
-      </c>
-      <c r="N52" s="70">
-        <f>(1-POW((1-K43),B3*C3))</f>
-        <v>0.5367087698</v>
+        <f t="shared" si="24"/>
+        <v>9.374115215</v>
+      </c>
+      <c r="M52" s="71" t="s">
+        <v>57</v>
+      </c>
+      <c r="N52" s="72">
+        <f>1-N51</f>
+        <v>0.6047082012</v>
       </c>
     </row>
     <row r="53">
-      <c r="B53" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="C53" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="D53" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="E53" s="33" t="s">
+      <c r="B53" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="C53" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="E53" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="F53" s="34" t="s">
+      <c r="F53" s="35" t="s">
         <v>22</v>
       </c>
       <c r="H53" s="64">
@@ -3336,38 +3472,39 @@
       </c>
       <c r="I53" s="65">
         <f>POWER(I45,H53-1)</f>
-        <v>0.32768</v>
+        <v>0.3595738033</v>
       </c>
       <c r="J53" s="66">
         <f>DIVIDE(I53,I58)</f>
-        <v>0.0734193418</v>
+        <v>0.076399039</v>
       </c>
       <c r="K53" s="67">
-        <f t="shared" si="25"/>
-        <v>7.34193418</v>
-      </c>
-      <c r="M53" s="69" t="s">
-        <v>55</v>
-      </c>
-      <c r="N53" s="19">
-        <f>J43*B3*C3</f>
-        <v>2.7</v>
+        <f t="shared" si="24"/>
+        <v>7.6399039</v>
+      </c>
+      <c r="M53" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="N53" s="20">
+        <f>1-POW(1-K43,(B3*C3)-1)
+</f>
+        <v>0.5794768098</v>
       </c>
     </row>
     <row r="54">
-      <c r="B54" s="23" t="s">
+      <c r="B54" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C54" s="24" t="s">
+      <c r="C54" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="D54" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E54" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="F54" s="25" t="s">
+      <c r="D54" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E54" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="F54" s="26" t="s">
         <v>18</v>
       </c>
       <c r="H54" s="60">
@@ -3375,71 +3512,70 @@
       </c>
       <c r="I54" s="61">
         <f>POWER(I45,H54-1)</f>
-        <v>0.262144</v>
+        <v>0.2930526497</v>
       </c>
       <c r="J54" s="62">
         <f>DIVIDE(I54,I58)</f>
-        <v>0.05873547344</v>
+        <v>0.06226521678</v>
       </c>
       <c r="K54" s="68">
-        <f t="shared" si="25"/>
-        <v>5.873547344</v>
-      </c>
-      <c r="M54" s="71" t="s">
-        <v>56</v>
-      </c>
-      <c r="N54" s="70">
-        <f>(H48*J48)+(H49*J49)+(H50*J50)+(H51*J51)+(H52*J52)+(H53*J53)+(H54*J54)+(H55*J55)+(H56*J56)+(H57*J57)
-</f>
-        <v>3.797097504</v>
+        <f t="shared" si="24"/>
+        <v>6.226521678</v>
       </c>
     </row>
     <row r="55">
-      <c r="B55" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="C55" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="D55" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="E55" s="33" t="s">
+      <c r="B55" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="C55" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="D55" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="E55" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="F55" s="34" t="s">
-        <v>24</v>
+      <c r="F55" s="35" t="s">
+        <v>17</v>
       </c>
       <c r="H55" s="64">
         <v>8.0</v>
       </c>
       <c r="I55" s="65">
         <f>POWER(I45,H55-1)</f>
-        <v>0.2097152</v>
+        <v>0.2388379095</v>
       </c>
       <c r="J55" s="66">
         <f>DIVIDE(I55,I58)</f>
-        <v>0.04698837875</v>
+        <v>0.05074615168</v>
       </c>
       <c r="K55" s="67">
-        <f t="shared" si="25"/>
-        <v>4.698837875</v>
+        <f t="shared" si="24"/>
+        <v>5.074615168</v>
+      </c>
+      <c r="M55" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="N55" s="73">
+        <f>J43*B3*C3</f>
+        <v>5.055</v>
       </c>
     </row>
     <row r="56">
-      <c r="B56" s="23" t="s">
+      <c r="B56" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C56" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="D56" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="E56" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="F56" s="25" t="s">
+      <c r="C56" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D56" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E56" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="F56" s="26" t="s">
         <v>16</v>
       </c>
       <c r="H56" s="60">
@@ -3447,452 +3583,472 @@
       </c>
       <c r="I56" s="61">
         <f>POWER(I45,H56-1)</f>
-        <v>0.16777216</v>
+        <v>0.1946528962</v>
       </c>
       <c r="J56" s="62">
         <f>DIVIDE(I56,I58)</f>
-        <v>0.037590703</v>
+        <v>0.04135811362</v>
       </c>
       <c r="K56" s="68">
+        <f t="shared" si="24"/>
+        <v>4.135811362</v>
+      </c>
+      <c r="M56" s="74" t="s">
+        <v>60</v>
+      </c>
+      <c r="N56" s="20">
+        <f>SUMPRODUCT(H48:H57,J48:J57)
+</f>
+        <v>3.920481458</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="B57" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="C57" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D57" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="E57" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="F57" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="H57" s="75">
+        <v>10.0</v>
+      </c>
+      <c r="I57" s="76">
+        <f>POWER(I45,H57-1)</f>
+        <v>0.1586421104</v>
+      </c>
+      <c r="J57" s="77">
+        <f>DIVIDE(I57,I58)</f>
+        <v>0.0337068626</v>
+      </c>
+      <c r="K57" s="78">
+        <f t="shared" si="24"/>
+        <v>3.37068626</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="B58" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C58" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D58" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E58" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="F58" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="H58" s="79" t="s">
+        <v>26</v>
+      </c>
+      <c r="I58" s="80">
+        <f t="shared" ref="I58:J58" si="25">I48+I49+I50+I51+I52+I53+I54+I55+I56+I57</f>
+        <v>4.706522595</v>
+      </c>
+      <c r="J58" s="73">
         <f t="shared" si="25"/>
-        <v>3.7590703</v>
-      </c>
-      <c r="M56" s="72" t="s">
-        <v>57</v>
-      </c>
-      <c r="N56" s="70">
-        <f>N53*N54</f>
-        <v>10.25216326</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="B57" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="C57" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="D57" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="K58" s="81">
+        <f t="shared" si="24"/>
+        <v>100</v>
+      </c>
+      <c r="M58" s="82" t="s">
+        <v>61</v>
+      </c>
+      <c r="N58" s="20">
+        <f>N55*N56</f>
+        <v>19.81803377</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="B59" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="C59" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D59" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="E59" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="E57" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="F57" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="H57" s="73">
+      <c r="F59" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="H59" s="83"/>
+      <c r="I59" s="45"/>
+    </row>
+    <row r="60">
+      <c r="B60" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C60" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D60" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E60" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="F60" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="H60" s="84" t="s">
+        <v>62</v>
+      </c>
+      <c r="I60" s="85" t="s">
+        <v>63</v>
+      </c>
+      <c r="M60" s="86" t="s">
+        <v>64</v>
+      </c>
+      <c r="N60" s="87">
+        <f>N58*N53</f>
+        <v>11.48409099</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="B61" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C61" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="D61" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="E61" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="F61" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="H61" s="88">
+        <v>0.0</v>
+      </c>
+      <c r="I61" s="11">
+        <f>POWER(1-$L$43, B3*C3*$M$65)
+</f>
+        <v>0.1635090097</v>
+      </c>
+      <c r="M61" s="89" t="s">
+        <v>65</v>
+      </c>
+      <c r="N61" s="90">
+        <f>N60*N49</f>
+        <v>157.8696858</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="B62" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C62" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D62" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E62" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="F62" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="H62" s="88">
+        <v>1.0</v>
+      </c>
+      <c r="I62" s="11">
+        <f>(B3*C3*$M$65)*$L$43*POWER(1-$L$43, B3*C3*$M$65-1)
+</f>
+        <v>0.2978909083</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="B63" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="C63" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D63" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="E63" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="F63" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="H63" s="91">
+        <v>2.0</v>
+      </c>
+      <c r="I63" s="14">
+        <f>COMBIN(B3*C3*$M$65, 2)*POWER($L$43, 2)*POWER(1-$L$43, B3*C3*$M$65-2)
+</f>
+        <v>0.2695490608</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="B64" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C64" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D64" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E64" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F64" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H64" s="5"/>
+      <c r="I64" s="5"/>
+      <c r="K64" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L64" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="M64" s="92" t="s">
+        <v>68</v>
+      </c>
+      <c r="N64" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="B65" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="C65" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D65" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="E65" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="F65" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="H65" s="74" t="s">
+        <v>70</v>
+      </c>
+      <c r="I65" s="20">
+        <f>1-(I61+I62+I63)</f>
+        <v>0.2690510213</v>
+      </c>
+      <c r="K65" s="60">
+        <v>1.0</v>
+      </c>
+      <c r="L65" s="93">
+        <v>3.0</v>
+      </c>
+      <c r="M65" s="93">
         <v>10.0</v>
       </c>
-      <c r="I57" s="74">
-        <f>POWER(I45,H57-1)</f>
-        <v>0.134217728</v>
-      </c>
-      <c r="J57" s="75">
-        <f>DIVIDE(I57,I58)</f>
-        <v>0.0300725624</v>
-      </c>
-      <c r="K57" s="76">
-        <f t="shared" si="25"/>
-        <v>3.00725624</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="B58" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="C58" s="24" t="s">
+      <c r="N65" s="94">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="B66" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C66" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D66" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E66" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D58" s="24" t="s">
+      <c r="F66" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K66" s="64">
+        <v>2.0</v>
+      </c>
+      <c r="L66" s="95">
+        <v>4.0</v>
+      </c>
+      <c r="M66" s="95">
+        <v>20.0</v>
+      </c>
+      <c r="N66" s="96">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="B67" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="C67" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D67" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="E67" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="E58" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="F58" s="25" t="s">
+      <c r="F67" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="H67" s="97" t="s">
+        <v>71</v>
+      </c>
+      <c r="I67" s="98" t="s">
+        <v>72</v>
+      </c>
+      <c r="K67" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="L67" s="56">
+        <v>5.0</v>
+      </c>
+      <c r="M67" s="56">
+        <v>30.0</v>
+      </c>
+      <c r="N67" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="B68" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C68" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D68" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E68" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="F68" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="H68" s="99">
+        <v>1.0</v>
+      </c>
+      <c r="I68" s="72">
+        <f>C3*B3*Bonus_Spawner[Bonus Symbol]</f>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="B69" s="100" t="s">
+        <v>16</v>
+      </c>
+      <c r="C69" s="101" t="s">
+        <v>22</v>
+      </c>
+      <c r="D69" s="101" t="s">
+        <v>16</v>
+      </c>
+      <c r="E69" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="H58" s="77" t="s">
-        <v>26</v>
-      </c>
-      <c r="I58" s="18">
-        <f t="shared" ref="I58:J58" si="26">I48+I49+I50+I51+I52+I53+I54+I55+I56+I57</f>
-        <v>4.463129088</v>
-      </c>
-      <c r="J58" s="19">
-        <f t="shared" si="26"/>
-        <v>1</v>
-      </c>
-      <c r="K58" s="78">
-        <f t="shared" si="25"/>
-        <v>100</v>
-      </c>
-      <c r="M58" s="79" t="s">
-        <v>58</v>
-      </c>
-      <c r="N58" s="80">
-        <f>N56*N52</f>
-        <v>5.502425932</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="B59" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="C59" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="D59" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="E59" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="F59" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="H59" s="5"/>
-      <c r="I59" s="5"/>
-      <c r="M59" s="81" t="s">
-        <v>59</v>
-      </c>
-      <c r="N59" s="82">
-        <f>N58*N50</f>
-        <v>165.8329861</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="B60" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="C60" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="D60" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="E60" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="F60" s="25" t="s">
+      <c r="F69" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="H60" s="5"/>
-      <c r="I60" s="5"/>
-    </row>
-    <row r="61">
-      <c r="B61" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="C61" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="D61" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="E61" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="F61" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="H61" s="69" t="s">
-        <v>60</v>
-      </c>
-      <c r="I61" s="70" t="str">
-        <f>N50*L43*#REF!*#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="B62" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C62" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D62" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="E62" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F62" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="H62" s="83"/>
-      <c r="I62" s="44"/>
-    </row>
-    <row r="63">
-      <c r="B63" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="C63" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="D63" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="E63" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="F63" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="H63" s="84" t="s">
-        <v>61</v>
-      </c>
-      <c r="I63" s="85" t="s">
-        <v>47</v>
-      </c>
-      <c r="K63" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L63" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="M63" s="86" t="s">
-        <v>64</v>
-      </c>
-      <c r="N63" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="B64" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="C64" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="D64" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E64" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F64" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="H64" s="87">
-        <v>0.0</v>
-      </c>
-      <c r="I64" s="11">
-        <f>POW((1-L43),M64*B3*C3)</f>
-        <v>0.002191214817</v>
-      </c>
-      <c r="K64" s="60">
-        <v>1.0</v>
-      </c>
-      <c r="L64" s="88">
-        <v>3.0</v>
-      </c>
-      <c r="M64" s="88">
+      <c r="H69" s="103">
         <v>10.0</v>
       </c>
-      <c r="N64" s="89">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="B65" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="C65" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="D65" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="E65" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="F65" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="H65" s="87">
-        <v>1.0</v>
-      </c>
-      <c r="I65" s="11">
-        <f>COMBIN(B3*C3*M64,H65)*POW(L43,H65)*POW(1-L43,B3*C3*M64-1)</f>
-        <v>0.01369509261</v>
-      </c>
-      <c r="K65" s="64">
-        <v>2.0</v>
-      </c>
-      <c r="L65" s="90">
-        <v>4.0</v>
-      </c>
-      <c r="M65" s="90">
-        <v>20.0</v>
-      </c>
-      <c r="N65" s="91">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="B66" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="C66" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D66" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="E66" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="F66" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="H66" s="92">
-        <v>2.0</v>
-      </c>
-      <c r="I66" s="14">
-        <f>COMBIN(B3*C3*M64,H66)*POW(L43,H66)*POW(1-L43,B3*C3*M64-2)</f>
-        <v>0.04251184996</v>
-      </c>
-      <c r="K66" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="L66" s="56">
-        <v>5.0</v>
-      </c>
-      <c r="M66" s="56">
-        <v>30.0</v>
-      </c>
-      <c r="N66" s="4">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="B67" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="C67" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="D67" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="E67" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="F67" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="H67" s="5"/>
-      <c r="I67" s="5"/>
-    </row>
-    <row r="68">
-      <c r="B68" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="C68" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="D68" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="E68" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="F68" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="H68" s="69" t="s">
-        <v>66</v>
-      </c>
-      <c r="I68" s="70">
-        <f>1-(I64+I65+I66)</f>
-        <v>0.9416018426</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="B69" s="93" t="s">
-        <v>16</v>
-      </c>
-      <c r="C69" s="94" t="s">
-        <v>22</v>
-      </c>
-      <c r="D69" s="94" t="s">
-        <v>16</v>
-      </c>
-      <c r="E69" s="94" t="s">
-        <v>20</v>
-      </c>
-      <c r="F69" s="95" t="s">
-        <v>21</v>
+      <c r="I69" s="104">
+        <f>I68*H69</f>
+        <v>1.8</v>
       </c>
     </row>
     <row r="71">
-      <c r="B71" s="44"/>
+      <c r="B71" s="45"/>
       <c r="C71" s="5"/>
-      <c r="D71" s="50"/>
+      <c r="D71" s="51"/>
       <c r="E71" s="5"/>
-      <c r="F71" s="50"/>
+      <c r="F71" s="51"/>
       <c r="G71" s="5"/>
     </row>
     <row r="73">
-      <c r="B73" s="44"/>
+      <c r="B73" s="45"/>
       <c r="C73" s="5"/>
-      <c r="D73" s="50"/>
+      <c r="D73" s="51"/>
       <c r="E73" s="5"/>
-      <c r="F73" s="50"/>
+      <c r="F73" s="51"/>
       <c r="G73" s="5"/>
     </row>
     <row r="74">
-      <c r="B74" s="44"/>
+      <c r="B74" s="45"/>
       <c r="C74" s="5"/>
-      <c r="D74" s="50"/>
+      <c r="D74" s="51"/>
       <c r="E74" s="5"/>
-      <c r="F74" s="50"/>
+      <c r="F74" s="51"/>
       <c r="G74" s="5"/>
     </row>
     <row r="75">
-      <c r="B75" s="44"/>
+      <c r="B75" s="45"/>
       <c r="C75" s="5"/>
-      <c r="D75" s="50"/>
+      <c r="D75" s="51"/>
       <c r="E75" s="5"/>
-      <c r="F75" s="50"/>
+      <c r="F75" s="51"/>
       <c r="G75" s="5"/>
-      <c r="H75" s="50"/>
-      <c r="I75" s="50"/>
+      <c r="H75" s="51"/>
+      <c r="I75" s="51"/>
     </row>
     <row r="76">
-      <c r="B76" s="44"/>
+      <c r="B76" s="45"/>
       <c r="C76" s="5"/>
-      <c r="D76" s="50"/>
+      <c r="D76" s="51"/>
       <c r="E76" s="5"/>
-      <c r="F76" s="50"/>
+      <c r="F76" s="51"/>
       <c r="G76" s="5"/>
-      <c r="H76" s="50"/>
-      <c r="I76" s="50"/>
+      <c r="H76" s="51"/>
+      <c r="I76" s="51"/>
     </row>
     <row r="77">
-      <c r="B77" s="44"/>
+      <c r="B77" s="45"/>
       <c r="C77" s="5"/>
-      <c r="D77" s="50"/>
+      <c r="D77" s="51"/>
       <c r="E77" s="5"/>
-      <c r="F77" s="50"/>
+      <c r="F77" s="51"/>
       <c r="G77" s="5"/>
-      <c r="H77" s="50"/>
-      <c r="I77" s="50"/>
+      <c r="H77" s="51"/>
+      <c r="I77" s="51"/>
     </row>
     <row r="78">
-      <c r="B78" s="44"/>
+      <c r="B78" s="45"/>
       <c r="C78" s="5"/>
-      <c r="D78" s="50"/>
+      <c r="D78" s="51"/>
       <c r="E78" s="5"/>
-      <c r="F78" s="50"/>
+      <c r="F78" s="51"/>
       <c r="G78" s="5"/>
-      <c r="H78" s="50"/>
-      <c r="I78" s="50"/>
+      <c r="H78" s="51"/>
+      <c r="I78" s="51"/>
     </row>
     <row r="79">
-      <c r="B79" s="44"/>
+      <c r="B79" s="45"/>
       <c r="C79" s="5"/>
     </row>
   </sheetData>

--- a/config/projects/mysterious_night/slot_config.xlsx
+++ b/config/projects/mysterious_night/slot_config.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="89">
   <si>
     <t>Columns</t>
   </si>
@@ -178,65 +178,113 @@
     <t>Probaility %</t>
   </si>
   <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Scatters</t>
+  </si>
+  <si>
+    <t>Start Free Spins</t>
+  </si>
+  <si>
+    <t>Bonus to upgrade</t>
+  </si>
+  <si>
+    <t>Spins</t>
+  </si>
+  <si>
+    <t>Expected Bonus Symbols</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Expected LevelUps Per Bonus</t>
+  </si>
+  <si>
+    <t>Avg Gained Spins With Level Ups</t>
+  </si>
+  <si>
+    <t>Avg Start Spins Per Bonus</t>
+  </si>
+  <si>
+    <t>Spin</t>
+  </si>
+  <si>
+    <t>Probability To Level Up From Level 1</t>
+  </si>
+  <si>
+    <t>Bonus Symbols</t>
+  </si>
+  <si>
+    <t>Probability Per 10 spins</t>
+  </si>
+  <si>
+    <t>Probability Per 20 spins</t>
+  </si>
+  <si>
+    <t>Probability Per 10 + Excedent From Lvl 1 Spins</t>
+  </si>
+  <si>
     <t>Avg Spins per bonus</t>
   </si>
   <si>
     <t>Prob Of No Chest In Any Cell Per Spin</t>
   </si>
   <si>
+    <t>&gt;=3</t>
+  </si>
+  <si>
     <t>Prob Of Chest In Any Cell Per Spin</t>
   </si>
   <si>
     <t>Prob Of Chest In Any Total Cells - 1 Per Spin</t>
   </si>
   <si>
-    <t>Avg Payer Cards per Spin</t>
-  </si>
-  <si>
-    <t>EV Multiplier</t>
-  </si>
-  <si>
-    <t>EV Total Multiplier</t>
-  </si>
-  <si>
-    <t>Bonus Symbols</t>
-  </si>
-  <si>
-    <t>Probability Per 10 spins</t>
-  </si>
-  <si>
-    <t>EV Bonus Per Spin</t>
-  </si>
-  <si>
-    <t>EV Bonus</t>
-  </si>
-  <si>
-    <t>Level</t>
-  </si>
-  <si>
-    <t>Scatters</t>
-  </si>
-  <si>
-    <t>Start Free Spins</t>
-  </si>
-  <si>
-    <t>Bonus to upgrade</t>
-  </si>
-  <si>
-    <t>Probability to Lvl Up</t>
-  </si>
-  <si>
-    <t>Spins</t>
-  </si>
-  <si>
-    <t>EV Bonus Symbols</t>
+    <t>Enter Probabilities</t>
+  </si>
+  <si>
+    <t>Possible Paths</t>
+  </si>
+  <si>
+    <t>Path Probabilities</t>
+  </si>
+  <si>
+    <t>Lvl 1 --&gt; Lvl 2</t>
+  </si>
+  <si>
+    <t>Avg Front Cards per Spin</t>
+  </si>
+  <si>
+    <t>Lvl 1 --&gt; Lvl 2 --&gt; Lvl 3</t>
+  </si>
+  <si>
+    <t>Avg Multiplier Per Card</t>
+  </si>
+  <si>
+    <t>Lvl 2 --&gt; Lvl 3</t>
+  </si>
+  <si>
+    <t>Avg Total Multiplier Per Spin</t>
+  </si>
+  <si>
+    <t>Expected Gained Multiplier Per Spin</t>
+  </si>
+  <si>
+    <t>Avg Spin To Left Level 1</t>
+  </si>
+  <si>
+    <t>Expected Gained Multiplier Per Bonus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avg Available Spins When Reach Level 2 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -277,6 +325,7 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -286,7 +335,7 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="51">
+  <borders count="62">
     <border/>
     <border>
       <left style="thin">
@@ -625,16 +674,128 @@
       </bottom>
     </border>
     <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
     </border>
@@ -757,6 +918,22 @@
       </right>
     </border>
     <border>
+      <left style="dotted">
+        <color rgb="FF000000"/>
+      </left>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="dotted">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -813,6 +990,31 @@
       </bottom>
     </border>
     <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF284E3F"/>
       </left>
@@ -841,18 +1043,13 @@
       </bottom>
     </border>
     <border>
-      <left style="dotted">
-        <color rgb="FF000000"/>
-      </left>
-      <bottom style="dotted">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="dotted">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="dotted">
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
     </border>
@@ -860,7 +1057,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="128">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -997,29 +1194,44 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="31" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="31" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="31" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="31" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="32" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="31" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="32" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="33" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="34" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="35" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="36" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="37" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="38" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="39" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="40" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="33" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="41" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="34" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="42" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1028,15 +1240,18 @@
     <xf borderId="30" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="35" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="43" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="36" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="44" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
     <xf borderId="24" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -1046,8 +1261,11 @@
     <xf borderId="23" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="37" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="45" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="19" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="29" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
@@ -1058,119 +1276,165 @@
     <xf borderId="28" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="38" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="46" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="37" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="21" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="23" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="45" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="39" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="26" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="28" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="47" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="48" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="40" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="49" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="50" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="41" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="51" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="52" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="53" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="54" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="55" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="56" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="47" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="42" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="48" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="16" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="17" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf borderId="18" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="16" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="35" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="48" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="43" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="44" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="45" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="46" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="16" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="17" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="31" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="16" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="49" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="50" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="57" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="58" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
+    <xf borderId="15" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="15" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="16" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="49" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="35" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="35" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="59" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="54" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="60" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="61" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="58" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="51" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="15" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
     <xf borderId="13" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="15" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="19" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="48" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="21" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="23" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="26" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="28" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="39" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="40" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="41" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="47" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="44" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="48" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="49" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="50" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1216,40 +1480,47 @@
     </dxf>
   </dxfs>
   <tableStyles count="7">
-    <tableStyle count="3" pivot="0" name="Full 1-style">
+    <tableStyle count="4" pivot="0" name="Full 1-style">
       <tableStyleElement dxfId="1" type="headerRow"/>
       <tableStyleElement dxfId="2" type="firstRowStripe"/>
       <tableStyleElement dxfId="3" type="secondRowStripe"/>
+      <tableStyleElement size="0" type="wholeTable"/>
     </tableStyle>
-    <tableStyle count="3" pivot="0" name="Full 1-style 2">
+    <tableStyle count="4" pivot="0" name="Full 1-style 2">
       <tableStyleElement dxfId="1" type="headerRow"/>
       <tableStyleElement dxfId="2" type="firstRowStripe"/>
       <tableStyleElement dxfId="3" type="secondRowStripe"/>
+      <tableStyleElement size="0" type="wholeTable"/>
     </tableStyle>
-    <tableStyle count="3" pivot="0" name="Full 1-style 3">
+    <tableStyle count="4" pivot="0" name="Full 1-style 3">
       <tableStyleElement dxfId="1" type="headerRow"/>
       <tableStyleElement dxfId="2" type="firstRowStripe"/>
       <tableStyleElement dxfId="3" type="secondRowStripe"/>
+      <tableStyleElement size="0" type="wholeTable"/>
     </tableStyle>
-    <tableStyle count="3" pivot="0" name="Full 1-style 4">
+    <tableStyle count="4" pivot="0" name="Full 1-style 4">
       <tableStyleElement dxfId="1" type="headerRow"/>
       <tableStyleElement dxfId="2" type="firstRowStripe"/>
       <tableStyleElement dxfId="3" type="secondRowStripe"/>
+      <tableStyleElement size="0" type="wholeTable"/>
     </tableStyle>
-    <tableStyle count="3" pivot="0" name="Full 1-style 5">
+    <tableStyle count="4" pivot="0" name="Full 1-style 5">
       <tableStyleElement dxfId="1" type="headerRow"/>
       <tableStyleElement dxfId="2" type="firstRowStripe"/>
       <tableStyleElement dxfId="3" type="secondRowStripe"/>
+      <tableStyleElement size="0" type="wholeTable"/>
     </tableStyle>
-    <tableStyle count="3" pivot="0" name="Full 1-style 6">
+    <tableStyle count="4" pivot="0" name="Full 1-style 6">
       <tableStyleElement dxfId="1" type="headerRow"/>
       <tableStyleElement dxfId="2" type="firstRowStripe"/>
       <tableStyleElement dxfId="3" type="secondRowStripe"/>
+      <tableStyleElement size="0" type="wholeTable"/>
     </tableStyle>
-    <tableStyle count="3" pivot="0" name="Full 1-style 7">
+    <tableStyle count="4" pivot="0" name="Full 1-style 7">
       <tableStyleElement dxfId="1" type="headerRow"/>
       <tableStyleElement dxfId="2" type="firstRowStripe"/>
       <tableStyleElement dxfId="3" type="secondRowStripe"/>
+      <tableStyleElement size="0" type="wholeTable"/>
     </tableStyle>
   </tableStyles>
 </styleSheet>
@@ -1333,7 +1604,7 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="K64:N67" displayName="Levels" name="Levels" id="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="M48:P51" displayName="Levels" name="Levels" id="7">
   <tableColumns count="4">
     <tableColumn name="Level" id="1"/>
     <tableColumn name="Scatters" id="2"/>
@@ -1548,15 +1819,17 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
+    <col customWidth="1" min="3" max="3" width="16.88"/>
     <col customWidth="1" min="4" max="7" width="13.38"/>
-    <col customWidth="1" min="8" max="8" width="17.63"/>
-    <col customWidth="1" min="9" max="9" width="16.13"/>
-    <col customWidth="1" min="10" max="11" width="13.38"/>
+    <col customWidth="1" min="8" max="8" width="20.38"/>
+    <col customWidth="1" min="9" max="9" width="17.5"/>
+    <col customWidth="1" min="10" max="10" width="20.25"/>
+    <col customWidth="1" min="11" max="11" width="14.38"/>
     <col customWidth="1" min="12" max="12" width="15.25"/>
-    <col customWidth="1" min="13" max="13" width="21.88"/>
+    <col customWidth="1" min="13" max="13" width="24.13"/>
     <col customWidth="1" min="14" max="14" width="17.63"/>
-    <col customWidth="1" min="15" max="15" width="15.25"/>
-    <col customWidth="1" min="16" max="16" width="16.13"/>
+    <col customWidth="1" min="15" max="15" width="18.13"/>
+    <col customWidth="1" min="16" max="16" width="21.88"/>
     <col customWidth="1" min="17" max="17" width="16.5"/>
     <col customWidth="1" min="18" max="18" width="16.13"/>
   </cols>
@@ -2651,13 +2924,6 @@
       <c r="L28" s="29">
         <v>2.0</v>
       </c>
-      <c r="N28" s="46"/>
-      <c r="O28" s="47" t="s">
-        <v>37</v>
-      </c>
-      <c r="P28" s="47" t="s">
-        <v>38</v>
-      </c>
     </row>
     <row r="29">
       <c r="B29" s="33" t="s">
@@ -2690,18 +2956,7 @@
       <c r="L29" s="38">
         <v>1.0</v>
       </c>
-      <c r="N29" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="O29" s="49">
-        <f>(R6+R7+R8+R9+R10+R11+R12) * ROWS(Paylines[])</f>
-        <v>0.47070448</v>
-      </c>
-      <c r="P29" s="49">
-        <f t="shared" ref="P29:P31" si="23">O29*100</f>
-        <v>47.070448</v>
-      </c>
-      <c r="Q29" s="50"/>
+      <c r="Q29" s="46"/>
     </row>
     <row r="30">
       <c r="B30" s="24" t="s">
@@ -2734,18 +2989,7 @@
       <c r="L30" s="29">
         <v>1.0</v>
       </c>
-      <c r="N30" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="O30" s="49">
-        <f>N61*M43</f>
-        <v>0.4918289874</v>
-      </c>
-      <c r="P30" s="49">
-        <f t="shared" si="23"/>
-        <v>49.18289874</v>
-      </c>
-      <c r="Q30" s="50"/>
+      <c r="Q30" s="46"/>
       <c r="R30" s="5"/>
       <c r="S30" s="5"/>
     </row>
@@ -2780,18 +3024,7 @@
       <c r="L31" s="38">
         <v>1.0</v>
       </c>
-      <c r="N31" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="O31" s="49">
-        <f>(O29)+(O30)</f>
-        <v>0.9625334674</v>
-      </c>
-      <c r="P31" s="49">
-        <f t="shared" si="23"/>
-        <v>96.25334674</v>
-      </c>
-      <c r="Q31" s="51"/>
+      <c r="Q31" s="47"/>
       <c r="R31" s="5"/>
       <c r="S31" s="5"/>
     </row>
@@ -2860,6 +3093,13 @@
       <c r="L33" s="38">
         <v>0.0</v>
       </c>
+      <c r="N33" s="48"/>
+      <c r="O33" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="P33" s="50" t="s">
+        <v>38</v>
+      </c>
       <c r="R33" s="5"/>
       <c r="S33" s="5"/>
     </row>
@@ -2894,6 +3134,17 @@
       <c r="L34" s="29">
         <v>2.0</v>
       </c>
+      <c r="N34" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="O34" s="52">
+        <f>(R6+R7+R8+R9+R10+R11+R12) * ROWS(Paylines[])</f>
+        <v>0.47070448</v>
+      </c>
+      <c r="P34" s="53">
+        <f t="shared" ref="P34:P36" si="23">O34*100</f>
+        <v>47.070448</v>
+      </c>
       <c r="R34" s="5"/>
       <c r="S34" s="5"/>
     </row>
@@ -2928,6 +3179,17 @@
       <c r="L35" s="38">
         <v>0.0</v>
       </c>
+      <c r="N35" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="O35" s="52">
+        <f>Q72*M43</f>
+        <v>0.5098535944</v>
+      </c>
+      <c r="P35" s="53">
+        <f t="shared" si="23"/>
+        <v>50.98535944</v>
+      </c>
       <c r="R35" s="5"/>
       <c r="S35" s="5"/>
     </row>
@@ -2962,6 +3224,17 @@
       <c r="L36" s="29">
         <v>2.0</v>
       </c>
+      <c r="N36" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="O36" s="55">
+        <f>(O34)+(O35)</f>
+        <v>0.9805580744</v>
+      </c>
+      <c r="P36" s="56">
+        <f t="shared" si="23"/>
+        <v>98.05580744</v>
+      </c>
       <c r="R36" s="5"/>
       <c r="S36" s="5"/>
     </row>
@@ -3049,19 +3322,19 @@
       <c r="F39" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="H39" s="52">
-        <v>1.0</v>
-      </c>
-      <c r="I39" s="53">
-        <v>1.0</v>
-      </c>
-      <c r="J39" s="53">
+      <c r="H39" s="57">
+        <v>1.0</v>
+      </c>
+      <c r="I39" s="58">
+        <v>1.0</v>
+      </c>
+      <c r="J39" s="58">
         <v>0.0</v>
       </c>
-      <c r="K39" s="53">
+      <c r="K39" s="58">
         <v>0.0</v>
       </c>
-      <c r="L39" s="54">
+      <c r="L39" s="59">
         <v>1.0</v>
       </c>
     </row>
@@ -3115,7 +3388,7 @@
       <c r="F42" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="H42" s="55" t="s">
+      <c r="H42" s="60" t="s">
         <v>33</v>
       </c>
       <c r="I42" s="22" t="s">
@@ -3156,13 +3429,13 @@
       <c r="H43" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="I43" s="56">
-        <v>0.6</v>
-      </c>
-      <c r="J43" s="56">
+      <c r="I43" s="61">
+        <v>0.591</v>
+      </c>
+      <c r="J43" s="61">
         <v>0.337</v>
       </c>
-      <c r="K43" s="56">
+      <c r="K43" s="61">
         <v>0.06</v>
       </c>
       <c r="L43" s="4">
@@ -3210,16 +3483,16 @@
       <c r="F45" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="H45" s="57" t="s">
+      <c r="H45" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="I45" s="58">
+      <c r="I45" s="63">
         <v>0.815</v>
       </c>
-      <c r="J45" s="59" t="s">
+      <c r="J45" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="L45" s="5"/>
+      <c r="L45" s="65"/>
     </row>
     <row r="46">
       <c r="B46" s="24" t="s">
@@ -3283,21 +3556,33 @@
       <c r="F48" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="H48" s="60">
-        <v>1.0</v>
-      </c>
-      <c r="I48" s="61">
+      <c r="H48" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="I48" s="67">
         <f>POWER(I45,H48-1)</f>
         <v>1</v>
       </c>
-      <c r="J48" s="62">
+      <c r="J48" s="68">
         <f>DIVIDE(I48,I58)</f>
         <v>0.212471093</v>
       </c>
-      <c r="K48" s="63">
+      <c r="K48" s="69">
         <f t="shared" ref="K48:K58" si="24">J48*100</f>
         <v>21.2471093</v>
       </c>
+      <c r="M48" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N48" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="O48" s="70" t="s">
+        <v>57</v>
+      </c>
+      <c r="P48" s="2" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="49">
       <c r="B49" s="33" t="s">
@@ -3315,30 +3600,32 @@
       <c r="F49" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="H49" s="64">
+      <c r="H49" s="71">
         <v>2.0</v>
       </c>
-      <c r="I49" s="65">
+      <c r="I49" s="72">
         <f>POWER(I45,H49-1)</f>
         <v>0.815</v>
       </c>
-      <c r="J49" s="66">
+      <c r="J49" s="73">
         <f>DIVIDE(I49,I58)</f>
         <v>0.1731639408</v>
       </c>
-      <c r="K49" s="67">
+      <c r="K49" s="74">
         <f t="shared" si="24"/>
         <v>17.31639408</v>
       </c>
-      <c r="M49" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="N49" s="20">
-        <f>( O15*( M65 + $I$65*(M66-M65) + POWER($I$65,2)*(M67-M66) )
- + P15*( M66 + $I$65*(M67-M66) )
- + Q15* M67 ) / $M$43
-</f>
-        <v>13.74681601</v>
+      <c r="M49" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="N49" s="75">
+        <v>3.0</v>
+      </c>
+      <c r="O49" s="75">
+        <v>10.0</v>
+      </c>
+      <c r="P49" s="76">
+        <v>3.0</v>
       </c>
     </row>
     <row r="50">
@@ -3357,21 +3644,34 @@
       <c r="F50" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="H50" s="60">
+      <c r="H50" s="66">
         <v>3.0</v>
       </c>
-      <c r="I50" s="61">
+      <c r="I50" s="67">
         <f>POWER(I45,H50-1)</f>
         <v>0.664225</v>
       </c>
-      <c r="J50" s="62">
+      <c r="J50" s="68">
         <f>DIVIDE(I50,I58)</f>
         <v>0.1411286118</v>
       </c>
-      <c r="K50" s="68">
+      <c r="K50" s="77">
         <f t="shared" si="24"/>
         <v>14.11286118</v>
       </c>
+      <c r="M50" s="71">
+        <v>2.0</v>
+      </c>
+      <c r="N50" s="78">
+        <v>4.0</v>
+      </c>
+      <c r="O50" s="78">
+        <v>20.0</v>
+      </c>
+      <c r="P50" s="79">
+        <v>3.0</v>
+      </c>
+      <c r="R50" s="47"/>
     </row>
     <row r="51">
       <c r="B51" s="33" t="s">
@@ -3389,669 +3689,857 @@
       <c r="F51" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="H51" s="64">
+      <c r="H51" s="71">
         <v>4.0</v>
       </c>
-      <c r="I51" s="65">
+      <c r="I51" s="72">
         <f>POWER(I45,H51-1)</f>
         <v>0.541343375</v>
       </c>
-      <c r="J51" s="66">
+      <c r="J51" s="73">
         <f>DIVIDE(I51,I58)</f>
         <v>0.1150198186</v>
       </c>
-      <c r="K51" s="67">
+      <c r="K51" s="74">
         <f t="shared" si="24"/>
         <v>11.50198186</v>
       </c>
-      <c r="M51" s="69" t="s">
-        <v>56</v>
-      </c>
-      <c r="N51" s="70">
+      <c r="M51" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="N51" s="61">
+        <v>5.0</v>
+      </c>
+      <c r="O51" s="61">
+        <v>30.0</v>
+      </c>
+      <c r="P51" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="B52" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D52" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="E52" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F52" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="H52" s="66">
+        <v>5.0</v>
+      </c>
+      <c r="I52" s="67">
+        <f>POWER(I45,H52-1)</f>
+        <v>0.4411948506</v>
+      </c>
+      <c r="J52" s="68">
+        <f>DIVIDE(I52,I58)</f>
+        <v>0.09374115215</v>
+      </c>
+      <c r="K52" s="77">
+        <f t="shared" si="24"/>
+        <v>9.374115215</v>
+      </c>
+      <c r="R52" s="47"/>
+      <c r="S52" s="47"/>
+    </row>
+    <row r="53">
+      <c r="B53" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="C53" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="E53" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="F53" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="H53" s="71">
+        <v>6.0</v>
+      </c>
+      <c r="I53" s="72">
+        <f>POWER(I45,H53-1)</f>
+        <v>0.3595738033</v>
+      </c>
+      <c r="J53" s="73">
+        <f>DIVIDE(I53,I58)</f>
+        <v>0.076399039</v>
+      </c>
+      <c r="K53" s="74">
+        <f t="shared" si="24"/>
+        <v>7.6399039</v>
+      </c>
+      <c r="M53" s="80" t="s">
+        <v>59</v>
+      </c>
+      <c r="N53" s="81" t="s">
+        <v>60</v>
+      </c>
+      <c r="P53" s="45"/>
+      <c r="R53" s="5"/>
+      <c r="S53" s="47"/>
+    </row>
+    <row r="54">
+      <c r="B54" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C54" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D54" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E54" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="F54" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="H54" s="66">
+        <v>7.0</v>
+      </c>
+      <c r="I54" s="67">
+        <f>POWER(I45,H54-1)</f>
+        <v>0.2930526497</v>
+      </c>
+      <c r="J54" s="68">
+        <f>DIVIDE(I54,I58)</f>
+        <v>0.06226521678</v>
+      </c>
+      <c r="K54" s="77">
+        <f t="shared" si="24"/>
+        <v>6.226521678</v>
+      </c>
+      <c r="M54" s="82">
+        <v>1.0</v>
+      </c>
+      <c r="N54" s="83">
+        <f>C3*B3*Bonus_Spawner[Bonus Symbol]</f>
+        <v>0.18</v>
+      </c>
+      <c r="P54" s="45"/>
+      <c r="R54" s="5"/>
+      <c r="S54" s="47" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="B55" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="C55" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="D55" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="E55" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="F55" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="H55" s="71">
+        <v>8.0</v>
+      </c>
+      <c r="I55" s="72">
+        <f>POWER(I45,H55-1)</f>
+        <v>0.2388379095</v>
+      </c>
+      <c r="J55" s="73">
+        <f>DIVIDE(I55,I58)</f>
+        <v>0.05074615168</v>
+      </c>
+      <c r="K55" s="74">
+        <f t="shared" si="24"/>
+        <v>5.074615168</v>
+      </c>
+      <c r="M55" s="84">
+        <v>10.0</v>
+      </c>
+      <c r="N55" s="85">
+        <f>N54*M55</f>
+        <v>1.8</v>
+      </c>
+      <c r="P55" s="45"/>
+      <c r="R55" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="S55" s="47" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="B56" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C56" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D56" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E56" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="F56" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="H56" s="66">
+        <v>9.0</v>
+      </c>
+      <c r="I56" s="67">
+        <f>POWER(I45,H56-1)</f>
+        <v>0.1946528962</v>
+      </c>
+      <c r="J56" s="68">
+        <f>DIVIDE(I56,I58)</f>
+        <v>0.04135811362</v>
+      </c>
+      <c r="K56" s="77">
+        <f t="shared" si="24"/>
+        <v>4.135811362</v>
+      </c>
+      <c r="P56" s="47"/>
+    </row>
+    <row r="57">
+      <c r="B57" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="C57" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D57" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="E57" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="F57" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="H57" s="86">
+        <v>10.0</v>
+      </c>
+      <c r="I57" s="87">
+        <f>POWER(I45,H57-1)</f>
+        <v>0.1586421104</v>
+      </c>
+      <c r="J57" s="88">
+        <f>DIVIDE(I57,I58)</f>
+        <v>0.0337068626</v>
+      </c>
+      <c r="K57" s="89">
+        <f t="shared" si="24"/>
+        <v>3.37068626</v>
+      </c>
+      <c r="P57" s="90" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q57" s="91">
+        <f>L67*(N67+N68) + L69*N69 + L70*0
+</f>
+        <v>0.3891190018</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="B58" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C58" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D58" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E58" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="F58" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="H58" s="92" t="s">
+        <v>26</v>
+      </c>
+      <c r="I58" s="93">
+        <f t="shared" ref="I58:J58" si="25">I48+I49+I50+I51+I52+I53+I54+I55+I56+I57</f>
+        <v>4.706522595</v>
+      </c>
+      <c r="J58" s="94">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="K58" s="95">
+        <f t="shared" si="24"/>
+        <v>100</v>
+      </c>
+      <c r="P58" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q58" s="20">
+        <f>10 * Q57
+</f>
+        <v>3.891190018</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="B59" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="C59" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D59" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="E59" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="F59" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="P59" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q59" s="20">
+        <f>(O15*O49+P15*O50+Q15*O51)/M43
+</f>
+        <v>10.35942093</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="B60" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C60" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D60" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E60" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="F60" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="H60" s="80" t="s">
+        <v>65</v>
+      </c>
+      <c r="I60" s="96" t="s">
+        <v>66</v>
+      </c>
+      <c r="K60" s="97" t="s">
+        <v>67</v>
+      </c>
+      <c r="L60" s="97" t="s">
+        <v>68</v>
+      </c>
+      <c r="M60" s="98" t="s">
+        <v>69</v>
+      </c>
+      <c r="N60" s="99" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="B61" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C61" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="D61" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="E61" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="F61" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="H61" s="100">
+        <v>1.0</v>
+      </c>
+      <c r="I61" s="101">
+        <f t="array" ref="I61:I70">(1 - _xlfn.BINOM.DIST(2, B3*C3*SEQUENCE(O49,1,1,1), Bonus_Spawner[Bonus Symbol], TRUE))
+ -
+ IF(SEQUENCE(O49,1,0,1)=0,
+    0,
+    1 - _xlfn.BINOM.DIST(2, B3*C3*SEQUENCE(O49,1,0,1), Bonus_Spawner[Bonus Symbol], TRUE)
+ )
+</f>
+        <v>0.0007056634878</v>
+      </c>
+      <c r="K61" s="102">
+        <v>0.0</v>
+      </c>
+      <c r="L61" s="103">
+        <f>POWER(1-$L$43, B3*C3*$O$49)
+</f>
+        <v>0.1635090097</v>
+      </c>
+      <c r="M61" s="5">
+        <f>POWER(1-$L$43, B3*C3*$O$50)
+</f>
+        <v>0.02673519624</v>
+      </c>
+      <c r="N61" s="11">
+        <f>POWER(1-L43, B3*C3*I73)
+</f>
+        <v>0.09907441379</v>
+      </c>
+      <c r="P61" s="104" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q61" s="105">
+        <f>Q59+Q58</f>
+        <v>14.25061095</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="B62" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C62" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D62" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E62" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="F62" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="H62" s="100">
+        <v>2.0</v>
+      </c>
+      <c r="I62" s="101">
+        <v>0.004801279911784029</v>
+      </c>
+      <c r="K62" s="102">
+        <v>1.0</v>
+      </c>
+      <c r="L62" s="103">
+        <f>(B3*C3*$O$49)*$L$43*POWER(1-$L$43, B3*C3*$O$49-1)
+</f>
+        <v>0.2978909083</v>
+      </c>
+      <c r="M62" s="5">
+        <f>(B3*C3*$O$50)*$L$43*POWER(1-$L$43, B3*C3*$O$50-1)
+</f>
+        <v>0.09741569481</v>
+      </c>
+      <c r="N62" s="11">
+        <f>(B3*C3*I73)*$L$43*POWER(1-$L$43, B3*C3*I73-1)
+</f>
+        <v>0.230436742</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="B63" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="C63" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D63" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="E63" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="F63" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="H63" s="100">
+        <v>3.0</v>
+      </c>
+      <c r="I63" s="101">
+        <v>0.0113481272521464</v>
+      </c>
+      <c r="K63" s="106">
+        <v>2.0</v>
+      </c>
+      <c r="L63" s="107">
+        <f>COMBIN(B3*C3*$O$49, 2)*POWER($L$43, 2)*POWER(1-$L$43, B3*C3*$O$49-2)
+</f>
+        <v>0.2695490608</v>
+      </c>
+      <c r="M63" s="13">
+        <f>COMBIN(B3*C3*$O$50, 2)*POWER($L$43, 2)*POWER(1-$L$43, B3*C3*$O$50-2)
+</f>
+        <v>0.1768863932</v>
+      </c>
+      <c r="N63" s="14">
+        <f>COMBIN(B3*C3*I73, 2)*POWER($L$43, 2)*POWER(1-$L$43, B3*C3*I73-2)
+</f>
+        <v>0.2651960718</v>
+      </c>
+      <c r="P63" s="90" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q63" s="91">
         <f>POW((1-K43),B3*C3)</f>
         <v>0.3952917988</v>
       </c>
     </row>
-    <row r="52">
-      <c r="B52" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="C52" s="25" t="s">
+    <row r="64">
+      <c r="B64" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D52" s="25" t="s">
+      <c r="C64" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D64" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E64" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F64" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="E52" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="F52" s="26" t="s">
+      <c r="H64" s="100">
+        <v>4.0</v>
+      </c>
+      <c r="I64" s="101">
+        <v>0.018787838692442382</v>
+      </c>
+      <c r="K64" s="108" t="s">
+        <v>73</v>
+      </c>
+      <c r="L64" s="21">
+        <f t="shared" ref="L64:M64" si="26">1-(L61+L62+L63)</f>
+        <v>0.2690510213</v>
+      </c>
+      <c r="M64" s="19">
+        <f t="shared" si="26"/>
+        <v>0.6989627157</v>
+      </c>
+      <c r="N64" s="20">
+        <f>(1-(N61+N62+N63))</f>
+        <v>0.4052927724</v>
+      </c>
+      <c r="P64" s="109" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q64" s="83">
+        <f>1-Q63</f>
+        <v>0.6047082012</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="B65" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="C65" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D65" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="E65" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="H52" s="60">
+      <c r="F65" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="G65" s="5"/>
+      <c r="H65" s="100">
         <v>5.0</v>
       </c>
-      <c r="I52" s="61">
-        <f>POWER(I45,H52-1)</f>
-        <v>0.4411948506</v>
-      </c>
-      <c r="J52" s="62">
-        <f>DIVIDE(I52,I58)</f>
-        <v>0.09374115215</v>
-      </c>
-      <c r="K52" s="68">
-        <f t="shared" si="24"/>
-        <v>9.374115215</v>
-      </c>
-      <c r="M52" s="71" t="s">
-        <v>57</v>
-      </c>
-      <c r="N52" s="72">
-        <f>1-N51</f>
-        <v>0.6047082012</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="B53" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="C53" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="D53" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="E53" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="F53" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="H53" s="64">
-        <v>6.0</v>
-      </c>
-      <c r="I53" s="65">
-        <f>POWER(I45,H53-1)</f>
-        <v>0.3595738033</v>
-      </c>
-      <c r="J53" s="66">
-        <f>DIVIDE(I53,I58)</f>
-        <v>0.076399039</v>
-      </c>
-      <c r="K53" s="67">
-        <f t="shared" si="24"/>
-        <v>7.6399039</v>
-      </c>
-      <c r="M53" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="N53" s="20">
+      <c r="I65" s="101">
+        <v>0.026116055185634868</v>
+      </c>
+      <c r="P65" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q65" s="20">
         <f>1-POW(1-K43,(B3*C3)-1)
 </f>
         <v>0.5794768098</v>
       </c>
     </row>
-    <row r="54">
-      <c r="B54" s="24" t="s">
+    <row r="66">
+      <c r="B66" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C66" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D66" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E66" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F66" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="H66" s="100">
+        <v>6.0</v>
+      </c>
+      <c r="I66" s="101">
+        <v>0.03272425737475093</v>
+      </c>
+      <c r="K66" s="110" t="s">
+        <v>55</v>
+      </c>
+      <c r="L66" s="111" t="s">
+        <v>76</v>
+      </c>
+      <c r="M66" s="110" t="s">
+        <v>77</v>
+      </c>
+      <c r="N66" s="110" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="B67" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="C54" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="D54" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="E54" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="F54" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="H54" s="60">
+      <c r="C67" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D67" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="E67" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="F67" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="G67" s="5"/>
+      <c r="H67" s="100">
         <v>7.0</v>
       </c>
-      <c r="I54" s="61">
-        <f>POWER(I45,H54-1)</f>
-        <v>0.2930526497</v>
-      </c>
-      <c r="J54" s="62">
-        <f>DIVIDE(I54,I58)</f>
-        <v>0.06226521678</v>
-      </c>
-      <c r="K54" s="68">
-        <f t="shared" si="24"/>
-        <v>6.226521678</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="B55" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="C55" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="D55" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="E55" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="F55" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="H55" s="64">
-        <v>8.0</v>
-      </c>
-      <c r="I55" s="65">
-        <f>POWER(I45,H55-1)</f>
-        <v>0.2388379095</v>
-      </c>
-      <c r="J55" s="66">
-        <f>DIVIDE(I55,I58)</f>
-        <v>0.05074615168</v>
-      </c>
-      <c r="K55" s="67">
-        <f t="shared" si="24"/>
-        <v>5.074615168</v>
-      </c>
-      <c r="M55" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="N55" s="73">
+      <c r="I67" s="101">
+        <v>0.03828167619524381</v>
+      </c>
+      <c r="K67" s="112">
+        <v>1.0</v>
+      </c>
+      <c r="L67" s="113">
+        <f>O15/M43</f>
+        <v>0.9645571024</v>
+      </c>
+      <c r="M67" s="114" t="s">
+        <v>79</v>
+      </c>
+      <c r="N67" s="115">
+        <f>L64</f>
+        <v>0.2690510213</v>
+      </c>
+      <c r="P67" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q67" s="94">
         <f>J43*B3*C3</f>
         <v>5.055</v>
       </c>
     </row>
-    <row r="56">
-      <c r="B56" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="C56" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D56" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="E56" s="25" t="s">
+    <row r="68">
+      <c r="B68" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C68" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="F56" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="H56" s="60">
-        <v>9.0</v>
-      </c>
-      <c r="I56" s="61">
-        <f>POWER(I45,H56-1)</f>
-        <v>0.1946528962</v>
-      </c>
-      <c r="J56" s="62">
-        <f>DIVIDE(I56,I58)</f>
-        <v>0.04135811362</v>
-      </c>
-      <c r="K56" s="68">
-        <f t="shared" si="24"/>
-        <v>4.135811362</v>
-      </c>
-      <c r="M56" s="74" t="s">
-        <v>60</v>
-      </c>
-      <c r="N56" s="20">
+      <c r="D68" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E68" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="F68" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="H68" s="100">
+        <v>8.0</v>
+      </c>
+      <c r="I68" s="101">
+        <v>0.042647867315852794</v>
+      </c>
+      <c r="K68" s="116"/>
+      <c r="M68" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="N68" s="11">
+        <f>N64*L64</f>
+        <v>0.1090444343</v>
+      </c>
+      <c r="P68" s="97" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q68" s="117">
         <f>SUMPRODUCT(H48:H57,J48:J57)
 </f>
         <v>3.920481458</v>
       </c>
     </row>
-    <row r="57">
-      <c r="B57" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="C57" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="D57" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="E57" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="F57" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="H57" s="75">
+    <row r="69">
+      <c r="B69" s="118" t="s">
+        <v>16</v>
+      </c>
+      <c r="C69" s="119" t="s">
+        <v>22</v>
+      </c>
+      <c r="D69" s="119" t="s">
+        <v>16</v>
+      </c>
+      <c r="E69" s="119" t="s">
+        <v>20</v>
+      </c>
+      <c r="F69" s="120" t="s">
+        <v>21</v>
+      </c>
+      <c r="H69" s="100">
+        <v>9.0</v>
+      </c>
+      <c r="I69" s="101">
+        <v>0.0458086329379801</v>
+      </c>
+      <c r="K69" s="102">
+        <v>2.0</v>
+      </c>
+      <c r="L69" s="5">
+        <f>P15/M43</f>
+        <v>0.03494370181</v>
+      </c>
+      <c r="M69" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="N69" s="11">
+        <f>M64</f>
+        <v>0.6989627157</v>
+      </c>
+      <c r="P69" s="121" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q69" s="122">
+        <f>Q68*Q67</f>
+        <v>19.81803377</v>
+      </c>
+    </row>
+    <row r="70" ht="23.25" customHeight="1">
+      <c r="H70" s="123">
         <v>10.0</v>
       </c>
-      <c r="I57" s="76">
-        <f>POWER(I45,H57-1)</f>
-        <v>0.1586421104</v>
-      </c>
-      <c r="J57" s="77">
-        <f>DIVIDE(I57,I58)</f>
-        <v>0.0337068626</v>
-      </c>
-      <c r="K57" s="78">
-        <f t="shared" si="24"/>
-        <v>3.37068626</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="B58" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="C58" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="D58" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="E58" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="F58" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="H58" s="79" t="s">
-        <v>26</v>
-      </c>
-      <c r="I58" s="80">
-        <f t="shared" ref="I58:J58" si="25">I48+I49+I50+I51+I52+I53+I54+I55+I56+I57</f>
-        <v>4.706522595</v>
-      </c>
-      <c r="J58" s="73">
-        <f t="shared" si="25"/>
-        <v>1</v>
-      </c>
-      <c r="K58" s="81">
-        <f t="shared" si="24"/>
-        <v>100</v>
-      </c>
-      <c r="M58" s="82" t="s">
+      <c r="I70" s="85">
+        <v>0.04782962291103243</v>
+      </c>
+      <c r="K70" s="106">
+        <v>3.0</v>
+      </c>
+      <c r="L70" s="13">
+        <f>Q15/M43</f>
+        <v>0.0004991957402</v>
+      </c>
+      <c r="M70" s="124" t="s">
         <v>61</v>
       </c>
-      <c r="N58" s="20">
-        <f>N55*N56</f>
-        <v>19.81803377</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="B59" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="C59" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="D59" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="E59" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="F59" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="H59" s="83"/>
-      <c r="I59" s="45"/>
-    </row>
-    <row r="60">
-      <c r="B60" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="C60" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="D60" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="E60" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="F60" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="H60" s="84" t="s">
-        <v>62</v>
-      </c>
-      <c r="I60" s="85" t="s">
-        <v>63</v>
-      </c>
-      <c r="M60" s="86" t="s">
-        <v>64</v>
-      </c>
-      <c r="N60" s="87">
-        <f>N58*N53</f>
+      <c r="N70" s="125" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="E71" s="5"/>
+      <c r="F71" s="47"/>
+      <c r="P71" s="97" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q71" s="117">
+        <f>Q69*Q65</f>
         <v>11.48409099</v>
       </c>
     </row>
-    <row r="61">
-      <c r="B61" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="C61" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="D61" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="E61" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="F61" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="H61" s="88">
-        <v>0.0</v>
-      </c>
-      <c r="I61" s="11">
-        <f>POWER(1-$L$43, B3*C3*$M$65)
+    <row r="72">
+      <c r="H72" s="90" t="s">
+        <v>86</v>
+      </c>
+      <c r="I72" s="126">
+        <f t="array" ref="I72">SUMPRODUCT(SEQUENCE(O49,1,1,1), I61:I70) / SUM(I61:I70)</f>
+        <v>7.233417544</v>
+      </c>
+      <c r="P72" s="121" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q72" s="122">
+        <f>Q71*Q61</f>
+        <v>163.6553128</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="E73" s="5"/>
+      <c r="F73" s="47"/>
+      <c r="H73" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="I73" s="20">
+        <f>(O49 - I72) + 10
 </f>
-        <v>0.1635090097</v>
-      </c>
-      <c r="M61" s="89" t="s">
-        <v>65</v>
-      </c>
-      <c r="N61" s="90">
-        <f>N60*N49</f>
-        <v>157.8696858</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="B62" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C62" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="D62" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="E62" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="F62" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="H62" s="88">
-        <v>1.0</v>
-      </c>
-      <c r="I62" s="11">
-        <f>(B3*C3*$M$65)*$L$43*POWER(1-$L$43, B3*C3*$M$65-1)
-</f>
-        <v>0.2978909083</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="B63" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="C63" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="D63" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="E63" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="F63" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="H63" s="91">
-        <v>2.0</v>
-      </c>
-      <c r="I63" s="14">
-        <f>COMBIN(B3*C3*$M$65, 2)*POWER($L$43, 2)*POWER(1-$L$43, B3*C3*$M$65-2)
-</f>
-        <v>0.2695490608</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="B64" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="C64" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="D64" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E64" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="F64" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="H64" s="5"/>
-      <c r="I64" s="5"/>
-      <c r="K64" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L64" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="M64" s="92" t="s">
-        <v>68</v>
-      </c>
-      <c r="N64" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="B65" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="C65" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="D65" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="E65" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="F65" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="H65" s="74" t="s">
-        <v>70</v>
-      </c>
-      <c r="I65" s="20">
-        <f>1-(I61+I62+I63)</f>
-        <v>0.2690510213</v>
-      </c>
-      <c r="K65" s="60">
-        <v>1.0</v>
-      </c>
-      <c r="L65" s="93">
-        <v>3.0</v>
-      </c>
-      <c r="M65" s="93">
-        <v>10.0</v>
-      </c>
-      <c r="N65" s="94">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="B66" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C66" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D66" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="E66" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F66" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="K66" s="64">
-        <v>2.0</v>
-      </c>
-      <c r="L66" s="95">
-        <v>4.0</v>
-      </c>
-      <c r="M66" s="95">
-        <v>20.0</v>
-      </c>
-      <c r="N66" s="96">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="B67" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C67" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="D67" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="E67" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="F67" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="H67" s="97" t="s">
-        <v>71</v>
-      </c>
-      <c r="I67" s="98" t="s">
-        <v>72</v>
-      </c>
-      <c r="K67" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="L67" s="56">
-        <v>5.0</v>
-      </c>
-      <c r="M67" s="56">
-        <v>30.0</v>
-      </c>
-      <c r="N67" s="4">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="B68" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="C68" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="D68" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="E68" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="F68" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="H68" s="99">
-        <v>1.0</v>
-      </c>
-      <c r="I68" s="72">
-        <f>C3*B3*Bonus_Spawner[Bonus Symbol]</f>
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="B69" s="100" t="s">
-        <v>16</v>
-      </c>
-      <c r="C69" s="101" t="s">
-        <v>22</v>
-      </c>
-      <c r="D69" s="101" t="s">
-        <v>16</v>
-      </c>
-      <c r="E69" s="101" t="s">
-        <v>20</v>
-      </c>
-      <c r="F69" s="102" t="s">
-        <v>21</v>
-      </c>
-      <c r="H69" s="103">
-        <v>10.0</v>
-      </c>
-      <c r="I69" s="104">
-        <f>I68*H69</f>
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="B71" s="45"/>
-      <c r="C71" s="5"/>
-      <c r="D71" s="51"/>
-      <c r="E71" s="5"/>
-      <c r="F71" s="51"/>
-      <c r="G71" s="5"/>
-    </row>
-    <row r="73">
-      <c r="B73" s="45"/>
-      <c r="C73" s="5"/>
-      <c r="D73" s="51"/>
-      <c r="E73" s="5"/>
-      <c r="F73" s="51"/>
-      <c r="G73" s="5"/>
+        <v>12.76658246</v>
+      </c>
     </row>
     <row r="74">
-      <c r="B74" s="45"/>
-      <c r="C74" s="5"/>
-      <c r="D74" s="51"/>
       <c r="E74" s="5"/>
-      <c r="F74" s="51"/>
-      <c r="G74" s="5"/>
+      <c r="F74" s="47"/>
     </row>
     <row r="75">
-      <c r="B75" s="45"/>
-      <c r="C75" s="5"/>
-      <c r="D75" s="51"/>
       <c r="E75" s="5"/>
-      <c r="F75" s="51"/>
-      <c r="G75" s="5"/>
-      <c r="H75" s="51"/>
-      <c r="I75" s="51"/>
+      <c r="F75" s="47"/>
     </row>
     <row r="76">
-      <c r="B76" s="45"/>
-      <c r="C76" s="5"/>
-      <c r="D76" s="51"/>
       <c r="E76" s="5"/>
-      <c r="F76" s="51"/>
-      <c r="G76" s="5"/>
-      <c r="H76" s="51"/>
-      <c r="I76" s="51"/>
+      <c r="F76" s="47"/>
     </row>
     <row r="77">
-      <c r="B77" s="45"/>
-      <c r="C77" s="5"/>
-      <c r="D77" s="51"/>
-      <c r="E77" s="5"/>
-      <c r="F77" s="51"/>
-      <c r="G77" s="5"/>
-      <c r="H77" s="51"/>
-      <c r="I77" s="51"/>
+      <c r="D77" s="47"/>
     </row>
     <row r="78">
-      <c r="B78" s="45"/>
-      <c r="C78" s="5"/>
-      <c r="D78" s="51"/>
-      <c r="E78" s="5"/>
-      <c r="F78" s="51"/>
-      <c r="G78" s="5"/>
-      <c r="H78" s="51"/>
-      <c r="I78" s="51"/>
+      <c r="B78" s="127"/>
+      <c r="C78" s="127"/>
+      <c r="D78" s="47"/>
     </row>
     <row r="79">
-      <c r="B79" s="45"/>
-      <c r="C79" s="5"/>
+      <c r="B79" s="47"/>
+    </row>
+    <row r="80">
+      <c r="B80" s="47"/>
+    </row>
+    <row r="81">
+      <c r="B81" s="47"/>
+    </row>
+    <row r="82">
+      <c r="B82" s="5"/>
+      <c r="C82" s="5"/>
+    </row>
+    <row r="83">
+      <c r="B83" s="127"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="K67:K68"/>
+    <mergeCell ref="L67:L68"/>
+  </mergeCells>
   <dataValidations>
     <dataValidation type="list" allowBlank="1" sqref="C20:C69">
       <formula1>"Queen,J,Q,A,K,King,Wolf,Wild,Scatter"</formula1>

--- a/config/projects/mysterious_night/slot_config.xlsx
+++ b/config/projects/mysterious_night/slot_config.xlsx
@@ -1964,7 +1964,7 @@
       </c>
       <c r="R6" s="12">
         <f>(O20*O6)+(P20*P6)+(Q20*Q6)</f>
-        <v>0.00434294784</v>
+        <v>0.00407607552</v>
       </c>
     </row>
     <row r="7">
@@ -2028,7 +2028,7 @@
       </c>
       <c r="R7" s="12">
         <f t="shared" ref="R7:R12" si="10">O21*O7+P21*P7+Q21*Q7</f>
-        <v>0.00386708256</v>
+        <v>0.00364283568</v>
       </c>
     </row>
     <row r="8">
@@ -2092,7 +2092,7 @@
       </c>
       <c r="R8" s="12">
         <f t="shared" si="10"/>
-        <v>0.00328704</v>
+        <v>0.00310272</v>
       </c>
     </row>
     <row r="9">
@@ -2156,7 +2156,7 @@
       </c>
       <c r="R9" s="12">
         <f t="shared" si="10"/>
-        <v>0.0035155296</v>
+        <v>0.0033116688</v>
       </c>
     </row>
     <row r="10">
@@ -2587,7 +2587,7 @@
         <v>0.3</v>
       </c>
       <c r="P20" s="31">
-        <v>0.8</v>
+        <v>0.65</v>
       </c>
       <c r="Q20" s="32">
         <v>1.5</v>
@@ -2631,7 +2631,7 @@
         <v>0.3</v>
       </c>
       <c r="P21" s="40">
-        <v>0.8</v>
+        <v>0.65</v>
       </c>
       <c r="Q21" s="41">
         <v>1.5</v>
@@ -2675,7 +2675,7 @@
         <v>0.3</v>
       </c>
       <c r="P22" s="31">
-        <v>0.8</v>
+        <v>0.65</v>
       </c>
       <c r="Q22" s="32">
         <v>1.5</v>
@@ -2719,7 +2719,7 @@
         <v>0.3</v>
       </c>
       <c r="P23" s="40">
-        <v>0.8</v>
+        <v>0.65</v>
       </c>
       <c r="Q23" s="41">
         <v>1.5</v>
@@ -3139,11 +3139,11 @@
       </c>
       <c r="O34" s="52">
         <f>(R6+R7+R8+R9+R10+R11+R12) * ROWS(Paylines[])</f>
-        <v>0.47070448</v>
+        <v>0.45311848</v>
       </c>
       <c r="P34" s="53">
         <f t="shared" ref="P34:P36" si="23">O34*100</f>
-        <v>47.070448</v>
+        <v>45.311848</v>
       </c>
       <c r="R34" s="5"/>
       <c r="S34" s="5"/>
@@ -3229,11 +3229,11 @@
       </c>
       <c r="O36" s="55">
         <f>(O34)+(O35)</f>
-        <v>0.9805580744</v>
+        <v>0.9629720744</v>
       </c>
       <c r="P36" s="56">
         <f t="shared" si="23"/>
-        <v>98.05580744</v>
+        <v>96.29720744</v>
       </c>
       <c r="R36" s="5"/>
       <c r="S36" s="5"/>
